--- a/gdp.xlsx
+++ b/gdp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,25 +632,25 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>773192081307.4312</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>785733203102.4611</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>883380542591.5386</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>926422006339.2308</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>948426879400.7693</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1048722866868.462</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1157007082437.692</v>
+        <v>12089969265.23438</v>
       </c>
       <c r="L2" t="n">
         <v>167043599900</v>
@@ -5323,6 +5323,1386 @@
       </c>
       <c r="AI42" t="n">
         <v>126058207462620</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1854205028639</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>504497800000000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>510916100000000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>521613500000000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>535562100000000</v>
+      </c>
+      <c r="I43" t="n">
+        <v>543545400000000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>536497400000000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>528069900000000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>535417700000000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>531653900000000</v>
+      </c>
+      <c r="N43" t="n">
+        <v>524478700000000</v>
+      </c>
+      <c r="O43" t="n">
+        <v>523968600000000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>529400900000000</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>532515600000000</v>
+      </c>
+      <c r="R43" t="n">
+        <v>535170200000000</v>
+      </c>
+      <c r="S43" t="n">
+        <v>539281700000000</v>
+      </c>
+      <c r="T43" t="n">
+        <v>527823800000000</v>
+      </c>
+      <c r="U43" t="n">
+        <v>494938400000000</v>
+      </c>
+      <c r="V43" t="n">
+        <v>505530600000000</v>
+      </c>
+      <c r="W43" t="n">
+        <v>497448900000000</v>
+      </c>
+      <c r="X43" t="n">
+        <v>500474700000000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>508700600000000</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>518811000000000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>538032300000000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>544364600000000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>553073000000000</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>556630100000000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>557910800000000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>539808200000000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>552571400000000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>559710100000000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>590694100000000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1854305029333</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Korea, Rep.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>315181300000000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>372493400000000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>436988800000000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>490850900000000</v>
+      </c>
+      <c r="I44" t="n">
+        <v>542001800000000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>537215300000000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>591453000000000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>651634400000000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>707021300000000</v>
+      </c>
+      <c r="N44" t="n">
+        <v>784741300000000</v>
+      </c>
+      <c r="O44" t="n">
+        <v>837365000000000</v>
+      </c>
+      <c r="P44" t="n">
+        <v>908439200000000</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>957447800000000</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1005601500000000</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1089660200000000</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1154216500000000</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1205347700000000</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1322611200000000</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1388937200000000</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1440111400000000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1500819100000000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1562928900000000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1658020400000000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1740779600000000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1835698200000000</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1898192600000000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1924498100000000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1940726200000000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>2080198500000000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>2161773900000000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2236329400000000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1854405030027</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>84575000000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>90600000000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>96236000000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>101101000000</v>
+      </c>
+      <c r="I45" t="n">
+        <v>104815000000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>106826000000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>113229000000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>119839000000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>128712000000</v>
+      </c>
+      <c r="N45" t="n">
+        <v>135181000000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>144502000000</v>
+      </c>
+      <c r="P45" t="n">
+        <v>154559000000</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>162937000000</v>
+      </c>
+      <c r="R45" t="n">
+        <v>172004000000</v>
+      </c>
+      <c r="S45" t="n">
+        <v>186673000000</v>
+      </c>
+      <c r="T45" t="n">
+        <v>189406000000</v>
+      </c>
+      <c r="U45" t="n">
+        <v>194307000000</v>
+      </c>
+      <c r="V45" t="n">
+        <v>203342000000</v>
+      </c>
+      <c r="W45" t="n">
+        <v>213030000000</v>
+      </c>
+      <c r="X45" t="n">
+        <v>217494000000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>232797000000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>242699000000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>255397000000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>271357000000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>290724000000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>306173000000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>323075000000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>327992000000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>358602000000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>389144000000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>410651000000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1854505030721</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1257174855700</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1768791487400</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3100235093700</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4086065207400</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4418708747600</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4805156414800</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5482354321300</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7062751068400</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8234493679700</v>
+      </c>
+      <c r="N46" t="n">
+        <v>11501450399000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>13556973688000</v>
+      </c>
+      <c r="P46" t="n">
+        <v>18124060020000</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>23121878997000</v>
+      </c>
+      <c r="R46" t="n">
+        <v>30375178717000</v>
+      </c>
+      <c r="S46" t="n">
+        <v>34675943737000</v>
+      </c>
+      <c r="T46" t="n">
+        <v>39954211886000</v>
+      </c>
+      <c r="U46" t="n">
+        <v>43461458621000</v>
+      </c>
+      <c r="V46" t="n">
+        <v>54612264177000</v>
+      </c>
+      <c r="W46" t="n">
+        <v>63134734885000</v>
+      </c>
+      <c r="X46" t="n">
+        <v>72351452212000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>81009964620000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>90136984656000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>95177735684000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>102575418030000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>114899249900000</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>129086907450000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>145639139380000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>154252318900000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>176075501870000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>202365026790000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>234425913902900</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1854605031415</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>333611292400</v>
+      </c>
+      <c r="F47" t="n">
+        <v>400657837200</v>
+      </c>
+      <c r="G47" t="n">
+        <v>465250740000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>687998000000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>770313000000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>850808200000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>906927630000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>967836930000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1020221000000</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1035373000000</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1131782000000</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1274329000000</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1415725000000</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1862041000000</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2151349000000</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2483058000000</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3275642000000</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3597630000000</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4162514000000</v>
+      </c>
+      <c r="X47" t="n">
+        <v>4767191000000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>5311322000000</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>6003835000000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6884317000000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>7594064000000</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8483396000000</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>9340307000000</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>10237727000000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>10715070000000</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12027662000000</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>13489642000000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>15108806000000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1854705032109</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2505757658900</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3338327100700</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4386255058600</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5471226214700</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6830184019700</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8090903071500</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9463537207700</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10702564363100</v>
+      </c>
+      <c r="M48" t="n">
+        <v>11899019633400</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13664748311300</v>
+      </c>
+      <c r="O48" t="n">
+        <v>15803723268000</v>
+      </c>
+      <c r="P48" t="n">
+        <v>18159445568400</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>20771312305000</v>
+      </c>
+      <c r="R48" t="n">
+        <v>23347422032000</v>
+      </c>
+      <c r="S48" t="n">
+        <v>27195969081000</v>
+      </c>
+      <c r="T48" t="n">
+        <v>33450674683000</v>
+      </c>
+      <c r="U48" t="n">
+        <v>38397086967000</v>
+      </c>
+      <c r="V48" t="n">
+        <v>44679884234000</v>
+      </c>
+      <c r="W48" t="n">
+        <v>53976186599000</v>
+      </c>
+      <c r="X48" t="n">
+        <v>62318659036800</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>72977199824200</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>82603387740700</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>94349315691600</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>108362324289500</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>118742132825000</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>129043901311200</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>139641854498000</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>151571350271500</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>162349974723800</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>174452778541000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>188334085000000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1854805032803</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3870387408000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4400270000000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5367456000000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6122089000000</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6633475000000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>7570250000000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8170700000000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>9364317417900</v>
+      </c>
+      <c r="M49" t="n">
+        <v>10296365610000</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10840666713000</v>
+      </c>
+      <c r="O49" t="n">
+        <v>12443497237000</v>
+      </c>
+      <c r="P49" t="n">
+        <v>15362227054000</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>16050626596000</v>
+      </c>
+      <c r="R49" t="n">
+        <v>18209404509000</v>
+      </c>
+      <c r="S49" t="n">
+        <v>21186563444000</v>
+      </c>
+      <c r="T49" t="n">
+        <v>24497446507000</v>
+      </c>
+      <c r="U49" t="n">
+        <v>48495172152000</v>
+      </c>
+      <c r="V49" t="n">
+        <v>54117241671000</v>
+      </c>
+      <c r="W49" t="n">
+        <v>64759582821000</v>
+      </c>
+      <c r="X49" t="n">
+        <v>69825188690000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>74924152556000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>82771227577000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>91582107734000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>100548527460000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>108518040920000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>120484777460000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>132089774790000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>139689045108200</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>148310247630400</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>162749947272900</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>183004386312800</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1854905033497</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Yemen, Rep.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>261059000000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>336514000000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>518252000000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>741667000000</v>
+      </c>
+      <c r="I50" t="n">
+        <v>884192000000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>859104000000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1189857000000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1558370000000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1662101000000</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1878007000000</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2160608000000</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2563490000000</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3208501000000</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3760038227200</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4308635620000</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5375824693600</v>
+      </c>
+      <c r="U50" t="n">
+        <v>5097593176200</v>
+      </c>
+      <c r="V50" t="n">
+        <v>6786813130000</v>
+      </c>
+      <c r="W50" t="n">
+        <v>6996908142400</v>
+      </c>
+      <c r="X50" t="n">
+        <v>7586549615600</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>8684829513100</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>9289390699700</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>9797602983900</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>8891000000000</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>10006000000000</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>11578730912300</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>10677793279104</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>11138308910427.38</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>11598824541750.62</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>12059340173074</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>12519855804397.38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1855005034191</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>13267298900</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15025435100</v>
+      </c>
+      <c r="G51" t="n">
+        <v>31082569000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>50817585200</v>
+      </c>
+      <c r="I51" t="n">
+        <v>63734101000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>79161065200</v>
+      </c>
+      <c r="K51" t="n">
+        <v>113944873800</v>
+      </c>
+      <c r="L51" t="n">
+        <v>151080955400</v>
+      </c>
+      <c r="M51" t="n">
+        <v>180349563400</v>
+      </c>
+      <c r="N51" t="n">
+        <v>390113132800</v>
+      </c>
+      <c r="O51" t="n">
+        <v>455035943900</v>
+      </c>
+      <c r="P51" t="n">
+        <v>550920593200</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>630038654600</v>
+      </c>
+      <c r="R51" t="n">
+        <v>791364591300</v>
+      </c>
+      <c r="S51" t="n">
+        <v>902893964000</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1088154018100</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1271897950800</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1524177906400</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1823114919200</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2185457550900</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2926763440900</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>3739646523700</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>4606103177100</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>5679325217400</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>6531224085000</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>7234882369500</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>8239605654000</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>8821424127100</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>9975521930200</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>11795662816400</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>14760005789200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1855105034885</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>6563813300</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6890675000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7111270700</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8553146600</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8529571599.999999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6401968200</v>
+      </c>
+      <c r="K52" t="n">
+        <v>6858013100</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6689957600</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6777384700</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6342116400</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5727591800</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5805598400</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5755215200</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5443896500</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5291950100</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4415702800</v>
+      </c>
+      <c r="U52" t="n">
+        <v>9665793300</v>
+      </c>
+      <c r="V52" t="n">
+        <v>12041655200</v>
+      </c>
+      <c r="W52" t="n">
+        <v>14101920300</v>
+      </c>
+      <c r="X52" t="n">
+        <v>17114849900</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>19091020000</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>19495519600</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>19963120600</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>20548678100</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>64016979487.4598</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>69613486100</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>212174391900</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1378795328500</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>3189937242100</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>12425362491400</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>133703393440500</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1855205035579</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>414337973300</v>
+      </c>
+      <c r="F53" t="n">
+        <v>655051577700</v>
+      </c>
+      <c r="G53" t="n">
+        <v>721728639500</v>
+      </c>
+      <c r="H53" t="n">
+        <v>822241422600</v>
+      </c>
+      <c r="I53" t="n">
+        <v>901587995300</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1029344630700</v>
+      </c>
+      <c r="K53" t="n">
+        <v>944897144000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>986128585300</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1253017742400</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1385349274600</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1590551400000</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2332340000000</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3505903000000</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3880944000000</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4140247589300</v>
+      </c>
+      <c r="T53" t="n">
+        <v>4635650285500</v>
+      </c>
+      <c r="U53" t="n">
+        <v>4369368423300</v>
+      </c>
+      <c r="V53" t="n">
+        <v>5278516425000</v>
+      </c>
+      <c r="W53" t="n">
+        <v>5736183821300</v>
+      </c>
+      <c r="X53" t="n">
+        <v>6314235440000</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>6397746000000</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>6883356000000</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6474000000000</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>5984000000000</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>5806796500000</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>6242756000000</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>6629554456200</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>6167632000000</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>6532361000000</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>7732628994700</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>7975982997700</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1855305036273</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GDP (current LCU)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>South Sudan</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Economical</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>747645824.6660156</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3207129816.333008</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5666613808</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8126097799.666016</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10585581791.33301</v>
+      </c>
+      <c r="M54" t="n">
+        <v>13045065783</v>
+      </c>
+      <c r="N54" t="n">
+        <v>15504549774.66602</v>
+      </c>
+      <c r="O54" t="n">
+        <v>17964033766.33301</v>
+      </c>
+      <c r="P54" t="n">
+        <v>20423517758</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>22883001749.66602</v>
+      </c>
+      <c r="R54" t="n">
+        <v>25342485741.33301</v>
+      </c>
+      <c r="S54" t="n">
+        <v>27801969733</v>
+      </c>
+      <c r="T54" t="n">
+        <v>30504231700</v>
+      </c>
+      <c r="U54" t="n">
+        <v>28251774800</v>
+      </c>
+      <c r="V54" t="n">
+        <v>33656316700</v>
+      </c>
+      <c r="W54" t="n">
+        <v>44557946400</v>
+      </c>
+      <c r="X54" t="n">
+        <v>35197842900</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>54358083600</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>41188527900</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>43242473500</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>49937325658</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>52396809649.66602</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>54856293641.33301</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>57315777633</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>59775261624.66602</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>62234745616.33301</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>64694229608</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>67153713599.66602</v>
       </c>
     </row>
   </sheetData>

--- a/gdp.xlsx
+++ b/gdp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1207,97 +1207,97 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>227899998200</v>
+        <v>747037000000</v>
       </c>
       <c r="F7" t="n">
-        <v>233721004000</v>
+        <v>791972000000</v>
       </c>
       <c r="G7" t="n">
-        <v>249864994800</v>
+        <v>831621000000</v>
       </c>
       <c r="H7" t="n">
-        <v>263100000000</v>
+        <v>859834000000</v>
       </c>
       <c r="I7" t="n">
-        <v>342800000000</v>
+        <v>906895000000</v>
       </c>
       <c r="J7" t="n">
-        <v>400200000000</v>
+        <v>940539000000</v>
       </c>
       <c r="K7" t="n">
-        <v>455400000000</v>
+        <v>1007917000000</v>
       </c>
       <c r="L7" t="n">
-        <v>627333193100</v>
+        <v>1106063000000</v>
       </c>
       <c r="M7" t="n">
-        <v>728046498300</v>
+        <v>1144535000000</v>
       </c>
       <c r="N7" t="n">
-        <v>768235261400</v>
+        <v>1193687000000</v>
       </c>
       <c r="O7" t="n">
-        <v>849482572100</v>
+        <v>1254742000000</v>
       </c>
       <c r="P7" t="n">
-        <v>1007615939900</v>
+        <v>1335724000000</v>
       </c>
       <c r="Q7" t="n">
-        <v>1208244000000</v>
+        <v>1421573000000</v>
       </c>
       <c r="R7" t="n">
-        <v>1309900000000</v>
+        <v>1496574000000</v>
       </c>
       <c r="S7" t="n">
-        <v>1467231000000</v>
+        <v>1577660000000</v>
       </c>
       <c r="T7" t="n">
-        <v>1911139000000</v>
+        <v>1657040000000</v>
       </c>
       <c r="U7" t="n">
-        <v>2191509000000</v>
+        <v>1571334000000</v>
       </c>
       <c r="V7" t="n">
-        <v>2501047000000</v>
+        <v>1666046000000</v>
       </c>
       <c r="W7" t="n">
-        <v>2819534000000</v>
+        <v>1774063000000</v>
       </c>
       <c r="X7" t="n">
-        <v>3365858000000</v>
+        <v>1827205000000</v>
       </c>
       <c r="Y7" t="n">
-        <v>3812471000000</v>
+        <v>1902249000000</v>
       </c>
       <c r="Z7" t="n">
-        <v>4184999000000</v>
+        <v>1994897000000</v>
       </c>
       <c r="AA7" t="n">
-        <v>4879178000000</v>
+        <v>1990442000000</v>
       </c>
       <c r="AB7" t="n">
-        <v>4897101000000</v>
+        <v>2025533000000</v>
       </c>
       <c r="AC7" t="n">
-        <v>5485068000000</v>
+        <v>2140641000000</v>
       </c>
       <c r="AD7" t="n">
-        <v>5414485000000</v>
+        <v>2235672000000</v>
       </c>
       <c r="AE7" t="n">
-        <v>5559586343900</v>
+        <v>2313563000000</v>
       </c>
       <c r="AF7" t="n">
-        <v>5910572984100</v>
+        <v>2220526000000</v>
       </c>
       <c r="AG7" t="n">
-        <v>6612792676100</v>
+        <v>2517123000000</v>
       </c>
       <c r="AH7" t="n">
-        <v>7969716254700</v>
+        <v>2813289000000</v>
       </c>
       <c r="AI7" t="n">
-        <v>9116015288000</v>
+        <v>2892140000000</v>
       </c>
     </row>
     <row r="8">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Congo, Dem. Rep.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1322,97 +1322,97 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6813193495000</v>
+        <v>269238.531005859</v>
       </c>
       <c r="F8" t="n">
-        <v>7105040198500</v>
+        <v>69502312.625</v>
       </c>
       <c r="G8" t="n">
-        <v>8433706912200</v>
+        <v>396421800</v>
       </c>
       <c r="H8" t="n">
-        <v>9201920588400</v>
+        <v>2896399900</v>
       </c>
       <c r="I8" t="n">
-        <v>10145328867000</v>
+        <v>7999999900</v>
       </c>
       <c r="J8" t="n">
-        <v>11720318188000</v>
+        <v>9989899900</v>
       </c>
       <c r="K8" t="n">
-        <v>13376073141000</v>
+        <v>51823853700</v>
       </c>
       <c r="L8" t="n">
-        <v>14237327246300</v>
+        <v>1317075195100</v>
       </c>
       <c r="M8" t="n">
-        <v>16267593266000</v>
+        <v>2231456730100</v>
       </c>
       <c r="N8" t="n">
-        <v>17631308613500</v>
+        <v>3025905347400</v>
       </c>
       <c r="O8" t="n">
-        <v>20080793374100</v>
+        <v>3623266448400</v>
       </c>
       <c r="P8" t="n">
-        <v>23629086383200</v>
+        <v>4113594421900</v>
       </c>
       <c r="Q8" t="n">
-        <v>28918818276300</v>
+        <v>5670065000000</v>
       </c>
       <c r="R8" t="n">
-        <v>34264316394100</v>
+        <v>6767519545400</v>
       </c>
       <c r="S8" t="n">
-        <v>41080517150800</v>
+        <v>8648878513699.999</v>
       </c>
       <c r="T8" t="n">
-        <v>49356657467000</v>
+        <v>11067568514000</v>
       </c>
       <c r="U8" t="n">
-        <v>51753675571100</v>
+        <v>15101187902000</v>
       </c>
       <c r="V8" t="n">
-        <v>57788146992400</v>
+        <v>19536676926000</v>
       </c>
       <c r="W8" t="n">
-        <v>65068396483700</v>
+        <v>23759424583000</v>
       </c>
       <c r="X8" t="n">
-        <v>71894422510300</v>
+        <v>26954556933000</v>
       </c>
       <c r="Y8" t="n">
-        <v>79768285447100</v>
+        <v>30051179396000</v>
       </c>
       <c r="Z8" t="n">
-        <v>88992410770400</v>
+        <v>33223988462000</v>
       </c>
       <c r="AA8" t="n">
-        <v>98334481518800</v>
+        <v>35111225972000</v>
       </c>
       <c r="AB8" t="n">
-        <v>107784905850900</v>
+        <v>37517392392000</v>
       </c>
       <c r="AC8" t="n">
-        <v>118907472809900</v>
+        <v>55676093127000</v>
       </c>
       <c r="AD8" t="n">
-        <v>134279541225600</v>
+        <v>77180538689000</v>
       </c>
       <c r="AE8" t="n">
-        <v>148984697132500</v>
+        <v>85314148014000</v>
       </c>
       <c r="AF8" t="n">
-        <v>142502828581900</v>
+        <v>90181047764600</v>
       </c>
       <c r="AG8" t="n">
-        <v>150792682537500</v>
+        <v>110114746435800</v>
       </c>
       <c r="AH8" t="n">
-        <v>164059088593300</v>
+        <v>132063706072500</v>
       </c>
       <c r="AI8" t="n">
-        <v>174027143165900</v>
+        <v>162254030092700</v>
       </c>
     </row>
     <row r="9">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1437,97 +1437,97 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>747037000000</v>
+        <v>38663344100</v>
       </c>
       <c r="F9" t="n">
-        <v>791972000000</v>
+        <v>41066095700</v>
       </c>
       <c r="G9" t="n">
-        <v>831621000000</v>
+        <v>49120169200</v>
       </c>
       <c r="H9" t="n">
-        <v>859834000000</v>
+        <v>55355988200</v>
       </c>
       <c r="I9" t="n">
-        <v>906895000000</v>
+        <v>57208774600</v>
       </c>
       <c r="J9" t="n">
-        <v>940539000000</v>
+        <v>55147488800</v>
       </c>
       <c r="K9" t="n">
-        <v>1007917000000</v>
+        <v>59283334900</v>
       </c>
       <c r="L9" t="n">
-        <v>1106063000000</v>
+        <v>67159835100</v>
       </c>
       <c r="M9" t="n">
-        <v>1144535000000</v>
+        <v>68548836800.00001</v>
       </c>
       <c r="N9" t="n">
-        <v>1193687000000</v>
+        <v>67067110300</v>
       </c>
       <c r="O9" t="n">
-        <v>1254742000000</v>
+        <v>73995583200</v>
       </c>
       <c r="P9" t="n">
-        <v>1335724000000</v>
+        <v>87325768600</v>
       </c>
       <c r="Q9" t="n">
-        <v>1421573000000</v>
+        <v>107289698100</v>
       </c>
       <c r="R9" t="n">
-        <v>1496574000000</v>
+        <v>132651633500</v>
       </c>
       <c r="S9" t="n">
-        <v>1577660000000</v>
+        <v>173308781900</v>
       </c>
       <c r="T9" t="n">
-        <v>1657040000000</v>
+        <v>250206540400</v>
       </c>
       <c r="U9" t="n">
-        <v>1571334000000</v>
+        <v>337965157200</v>
       </c>
       <c r="V9" t="n">
-        <v>1666046000000</v>
+        <v>385876491200</v>
       </c>
       <c r="W9" t="n">
-        <v>1774063000000</v>
+        <v>515078541000</v>
       </c>
       <c r="X9" t="n">
-        <v>1827205000000</v>
+        <v>747326498000</v>
       </c>
       <c r="Y9" t="n">
-        <v>1902249000000</v>
+        <v>866921083000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1994897000000</v>
+        <v>1060814376000</v>
       </c>
       <c r="AA9" t="n">
-        <v>1990442000000</v>
+        <v>1297961440000</v>
       </c>
       <c r="AB9" t="n">
-        <v>2025533000000</v>
+        <v>1568097000000</v>
       </c>
       <c r="AC9" t="n">
-        <v>2140641000000</v>
+        <v>1832786000000</v>
       </c>
       <c r="AD9" t="n">
-        <v>2235672000000</v>
+        <v>2200121000000</v>
       </c>
       <c r="AE9" t="n">
-        <v>2313563000000</v>
+        <v>2690751000000</v>
       </c>
       <c r="AF9" t="n">
-        <v>2220526000000</v>
+        <v>3374747000000</v>
       </c>
       <c r="AG9" t="n">
-        <v>2517123000000</v>
+        <v>4341024000000</v>
       </c>
       <c r="AH9" t="n">
-        <v>2813289000000</v>
+        <v>6157015000000</v>
       </c>
       <c r="AI9" t="n">
-        <v>2892140000000</v>
+        <v>8722308000000</v>
       </c>
     </row>
     <row r="10">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1552,97 +1552,97 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>269238.531005859</v>
+        <v>927919397000</v>
       </c>
       <c r="F10" t="n">
-        <v>69502312.625</v>
+        <v>992367577000</v>
       </c>
       <c r="G10" t="n">
-        <v>396421800</v>
+        <v>1035595130000</v>
       </c>
       <c r="H10" t="n">
-        <v>2896399900</v>
+        <v>1087146990000</v>
       </c>
       <c r="I10" t="n">
-        <v>7999999900</v>
+        <v>1144172600000</v>
       </c>
       <c r="J10" t="n">
-        <v>9989899900</v>
+        <v>1185217921000</v>
       </c>
       <c r="K10" t="n">
-        <v>51823853700</v>
+        <v>1240980316000</v>
       </c>
       <c r="L10" t="n">
-        <v>1317075195100</v>
+        <v>1325982579000</v>
       </c>
       <c r="M10" t="n">
-        <v>2231456730100</v>
+        <v>1372276534000</v>
       </c>
       <c r="N10" t="n">
-        <v>3025905347400</v>
+        <v>1411479278000</v>
       </c>
       <c r="O10" t="n">
-        <v>3623266448400</v>
+        <v>1438893296000</v>
       </c>
       <c r="P10" t="n">
-        <v>4113594421900</v>
+        <v>1509674257000</v>
       </c>
       <c r="Q10" t="n">
-        <v>5670065000000</v>
+        <v>1590078561000</v>
       </c>
       <c r="R10" t="n">
-        <v>6767519545400</v>
+        <v>1685240766000</v>
       </c>
       <c r="S10" t="n">
-        <v>8648878513699.999</v>
+        <v>1743144366000</v>
       </c>
       <c r="T10" t="n">
-        <v>11067568514000</v>
+        <v>1809720846000</v>
       </c>
       <c r="U10" t="n">
-        <v>15101187902000</v>
+        <v>1729529013000</v>
       </c>
       <c r="V10" t="n">
-        <v>19536676926000</v>
+        <v>1812895797000</v>
       </c>
       <c r="W10" t="n">
-        <v>23759424583000</v>
+        <v>1848531108000</v>
       </c>
       <c r="X10" t="n">
-        <v>26954556933000</v>
+        <v>1892937992000</v>
       </c>
       <c r="Y10" t="n">
-        <v>30051179396000</v>
+        <v>1935555208000</v>
       </c>
       <c r="Z10" t="n">
-        <v>33223988462000</v>
+        <v>1980261218000</v>
       </c>
       <c r="AA10" t="n">
-        <v>35111225972000</v>
+        <v>2030205915000</v>
       </c>
       <c r="AB10" t="n">
-        <v>37517392392000</v>
+        <v>2101520255000</v>
       </c>
       <c r="AC10" t="n">
-        <v>55676093127000</v>
+        <v>2189589424000</v>
       </c>
       <c r="AD10" t="n">
-        <v>77180538689000</v>
+        <v>2243542220000</v>
       </c>
       <c r="AE10" t="n">
-        <v>85314148014000</v>
+        <v>2303636685000</v>
       </c>
       <c r="AF10" t="n">
-        <v>90181047764600</v>
+        <v>2326592274000</v>
       </c>
       <c r="AG10" t="n">
-        <v>110114746435800</v>
+        <v>2567519953000</v>
       </c>
       <c r="AH10" t="n">
-        <v>132063706072500</v>
+        <v>2844227937000</v>
       </c>
       <c r="AI10" t="n">
-        <v>162254030092700</v>
+        <v>2804742256000</v>
       </c>
     </row>
     <row r="11">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1667,97 +1667,97 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38663344100</v>
+        <v>85610000000</v>
       </c>
       <c r="F11" t="n">
-        <v>41066095700</v>
+        <v>90646000000</v>
       </c>
       <c r="G11" t="n">
-        <v>49120169200</v>
+        <v>98454000000</v>
       </c>
       <c r="H11" t="n">
-        <v>55355988200</v>
+        <v>101977000000</v>
       </c>
       <c r="I11" t="n">
-        <v>57208774600</v>
+        <v>110764000000</v>
       </c>
       <c r="J11" t="n">
-        <v>55147488800</v>
+        <v>120431000000</v>
       </c>
       <c r="K11" t="n">
-        <v>59283334900</v>
+        <v>126888000000</v>
       </c>
       <c r="L11" t="n">
-        <v>67159835100</v>
+        <v>136386000000</v>
       </c>
       <c r="M11" t="n">
-        <v>68548836800.00001</v>
+        <v>144613000000</v>
       </c>
       <c r="N11" t="n">
-        <v>67067110300</v>
+        <v>148440000000</v>
       </c>
       <c r="O11" t="n">
-        <v>73995583200</v>
+        <v>151714000000</v>
       </c>
       <c r="P11" t="n">
-        <v>87325768600</v>
+        <v>158741000000</v>
       </c>
       <c r="Q11" t="n">
-        <v>107289698100</v>
+        <v>164666000000</v>
       </c>
       <c r="R11" t="n">
-        <v>132651633500</v>
+        <v>172861000000</v>
       </c>
       <c r="S11" t="n">
-        <v>173308781900</v>
+        <v>187059000000</v>
       </c>
       <c r="T11" t="n">
-        <v>250206540400</v>
+        <v>194253000000</v>
       </c>
       <c r="U11" t="n">
-        <v>337965157200</v>
+        <v>181735000000</v>
       </c>
       <c r="V11" t="n">
-        <v>385876491200</v>
+        <v>188147000000</v>
       </c>
       <c r="W11" t="n">
-        <v>515078541000</v>
+        <v>197655000000</v>
       </c>
       <c r="X11" t="n">
-        <v>747326498000</v>
+        <v>200378000000</v>
       </c>
       <c r="Y11" t="n">
-        <v>866921083000</v>
+        <v>203497000000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1060814376000</v>
+        <v>205855000000</v>
       </c>
       <c r="AA11" t="n">
-        <v>1297961440000</v>
+        <v>210192000000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1568097000000</v>
+        <v>215717000000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1832786000000</v>
+        <v>224706000000</v>
       </c>
       <c r="AD11" t="n">
-        <v>2200121000000</v>
+        <v>231905000000</v>
       </c>
       <c r="AE11" t="n">
-        <v>2690751000000</v>
+        <v>238518000000</v>
       </c>
       <c r="AF11" t="n">
-        <v>3374747000000</v>
+        <v>236387000000</v>
       </c>
       <c r="AG11" t="n">
-        <v>4341024000000</v>
+        <v>248764000000</v>
       </c>
       <c r="AH11" t="n">
-        <v>6157015000000</v>
+        <v>266124000000</v>
       </c>
       <c r="AI11" t="n">
-        <v>8722308000000</v>
+        <v>273320000000</v>
       </c>
     </row>
     <row r="12">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1782,97 +1782,97 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>362103000000</v>
+        <v>1134838600000</v>
       </c>
       <c r="F12" t="n">
-        <v>472576000000</v>
+        <v>1172960400000</v>
       </c>
       <c r="G12" t="n">
-        <v>556745000000</v>
+        <v>1213802400000</v>
       </c>
       <c r="H12" t="n">
-        <v>515538000000</v>
+        <v>1246973700000</v>
       </c>
       <c r="I12" t="n">
-        <v>547331000000</v>
+        <v>1289669200000</v>
       </c>
       <c r="J12" t="n">
-        <v>570683000000</v>
+        <v>1346317600000</v>
       </c>
       <c r="K12" t="n">
-        <v>615377403800</v>
+        <v>1395148000000</v>
       </c>
       <c r="L12" t="n">
-        <v>651102539300</v>
+        <v>1473517300000</v>
       </c>
       <c r="M12" t="n">
-        <v>683069686500</v>
+        <v>1530070900000</v>
       </c>
       <c r="N12" t="n">
-        <v>690985647100</v>
+        <v>1578330400000</v>
       </c>
       <c r="O12" t="n">
-        <v>662425831200</v>
+        <v>1622312800000</v>
       </c>
       <c r="P12" t="n">
-        <v>670964091200</v>
+        <v>1696107700000</v>
       </c>
       <c r="Q12" t="n">
-        <v>705416000000</v>
+        <v>1762047700000</v>
       </c>
       <c r="R12" t="n">
-        <v>763713000000</v>
+        <v>1846020800000</v>
       </c>
       <c r="S12" t="n">
-        <v>813587000000</v>
+        <v>1937876300000</v>
       </c>
       <c r="T12" t="n">
-        <v>889060000000</v>
+        <v>1989999700000</v>
       </c>
       <c r="U12" t="n">
-        <v>972276000000</v>
+        <v>1935840200000</v>
       </c>
       <c r="V12" t="n">
-        <v>1060142000000</v>
+        <v>1996075100000</v>
       </c>
       <c r="W12" t="n">
-        <v>1148896000000</v>
+        <v>2062141400000</v>
       </c>
       <c r="X12" t="n">
-        <v>1281561000000</v>
+        <v>2088286700000</v>
       </c>
       <c r="Y12" t="n">
-        <v>835453000000</v>
+        <v>2120351900000</v>
       </c>
       <c r="Z12" t="n">
-        <v>935578000000</v>
+        <v>2153733100000</v>
       </c>
       <c r="AA12" t="n">
-        <v>1002592000000</v>
+        <v>2201401600000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1081516000000</v>
+        <v>2231819200000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1203324000000</v>
+        <v>2291680500000</v>
       </c>
       <c r="AD12" t="n">
-        <v>1233635000000</v>
+        <v>2355362800000</v>
       </c>
       <c r="AE12" t="n">
-        <v>1301484925000</v>
+        <v>2432206800000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1339227987800</v>
+        <v>2318276200000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1395475563300</v>
+        <v>2508102300000</v>
       </c>
       <c r="AH12" t="n">
-        <v>1486181474900</v>
+        <v>2655435000000</v>
       </c>
       <c r="AI12" t="n">
-        <v>1550084195700</v>
+        <v>2822454600000</v>
       </c>
     </row>
     <row r="13">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1897,97 +1897,97 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>927919397000</v>
+        <v>1757340000000</v>
       </c>
       <c r="F13" t="n">
-        <v>992367577000</v>
+        <v>1838020000000</v>
       </c>
       <c r="G13" t="n">
-        <v>1035595130000</v>
+        <v>1899930000000</v>
       </c>
       <c r="H13" t="n">
-        <v>1087146990000</v>
+        <v>1928560000000</v>
       </c>
       <c r="I13" t="n">
-        <v>1144172600000</v>
+        <v>1967180000000</v>
       </c>
       <c r="J13" t="n">
-        <v>1185217921000</v>
+        <v>2022310000000</v>
       </c>
       <c r="K13" t="n">
-        <v>1240980316000</v>
+        <v>2077240000000</v>
       </c>
       <c r="L13" t="n">
-        <v>1325982579000</v>
+        <v>2129660000000</v>
       </c>
       <c r="M13" t="n">
-        <v>1372276534000</v>
+        <v>2195530000000</v>
       </c>
       <c r="N13" t="n">
-        <v>1411479278000</v>
+        <v>2223360000000</v>
       </c>
       <c r="O13" t="n">
-        <v>1438893296000</v>
+        <v>2240810000000</v>
       </c>
       <c r="P13" t="n">
-        <v>1509674257000</v>
+        <v>2293040000000</v>
       </c>
       <c r="Q13" t="n">
-        <v>1590078561000</v>
+        <v>2325710000000</v>
       </c>
       <c r="R13" t="n">
-        <v>1685240766000</v>
+        <v>2426180000000</v>
       </c>
       <c r="S13" t="n">
-        <v>1743144366000</v>
+        <v>2542220000000</v>
       </c>
       <c r="T13" t="n">
-        <v>1809720846000</v>
+        <v>2589680000000</v>
       </c>
       <c r="U13" t="n">
-        <v>1729529013000</v>
+        <v>2494870000000</v>
       </c>
       <c r="V13" t="n">
-        <v>1812895797000</v>
+        <v>2616060000000</v>
       </c>
       <c r="W13" t="n">
-        <v>1848531108000</v>
+        <v>2747810000000</v>
       </c>
       <c r="X13" t="n">
-        <v>1892937992000</v>
+        <v>2800380000000</v>
       </c>
       <c r="Y13" t="n">
-        <v>1935555208000</v>
+        <v>2867280000000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1980261218000</v>
+        <v>2985170000000</v>
       </c>
       <c r="AA13" t="n">
-        <v>2030205915000</v>
+        <v>3085650000000</v>
       </c>
       <c r="AB13" t="n">
-        <v>2101520255000</v>
+        <v>3196110000000</v>
       </c>
       <c r="AC13" t="n">
-        <v>2189589424000</v>
+        <v>3331110000000</v>
       </c>
       <c r="AD13" t="n">
-        <v>2243542220000</v>
+        <v>3431130000000</v>
       </c>
       <c r="AE13" t="n">
-        <v>2303636685000</v>
+        <v>3534880000000</v>
       </c>
       <c r="AF13" t="n">
-        <v>2326592274000</v>
+        <v>3449620000000</v>
       </c>
       <c r="AG13" t="n">
-        <v>2567519953000</v>
+        <v>3676460000000</v>
       </c>
       <c r="AH13" t="n">
-        <v>2844227937000</v>
+        <v>3953850000000</v>
       </c>
       <c r="AI13" t="n">
-        <v>2804742256000</v>
+        <v>4185550000000</v>
       </c>
     </row>
     <row r="14">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>India</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2012,97 +2012,97 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>85610000000</v>
+        <v>8759924253799.999</v>
       </c>
       <c r="F14" t="n">
-        <v>90646000000</v>
+        <v>10275700589000</v>
       </c>
       <c r="G14" t="n">
-        <v>98454000000</v>
+        <v>12055826758000</v>
       </c>
       <c r="H14" t="n">
-        <v>101977000000</v>
+        <v>13948159747000</v>
       </c>
       <c r="I14" t="n">
-        <v>110764000000</v>
+        <v>15452938758000</v>
       </c>
       <c r="J14" t="n">
-        <v>120431000000</v>
+        <v>17722970117000</v>
       </c>
       <c r="K14" t="n">
-        <v>126888000000</v>
+        <v>19882615729000</v>
       </c>
       <c r="L14" t="n">
-        <v>136386000000</v>
+        <v>21398856906000</v>
       </c>
       <c r="M14" t="n">
-        <v>144613000000</v>
+        <v>23152429571000</v>
       </c>
       <c r="N14" t="n">
-        <v>148440000000</v>
+        <v>24926137847000</v>
       </c>
       <c r="O14" t="n">
-        <v>151714000000</v>
+        <v>27925301414000</v>
       </c>
       <c r="P14" t="n">
-        <v>158741000000</v>
+        <v>31863319237500</v>
       </c>
       <c r="Q14" t="n">
-        <v>164666000000</v>
+        <v>36321246607300</v>
       </c>
       <c r="R14" t="n">
-        <v>172861000000</v>
+        <v>42546289837700</v>
       </c>
       <c r="S14" t="n">
-        <v>187059000000</v>
+        <v>48986620590700</v>
       </c>
       <c r="T14" t="n">
-        <v>194253000000</v>
+        <v>55141523846600</v>
       </c>
       <c r="U14" t="n">
-        <v>181735000000</v>
+        <v>63664065417500</v>
       </c>
       <c r="V14" t="n">
-        <v>188147000000</v>
+        <v>76344721043800</v>
       </c>
       <c r="W14" t="n">
-        <v>197655000000</v>
+        <v>87363287113700</v>
       </c>
       <c r="X14" t="n">
-        <v>200378000000</v>
+        <v>99440131041500</v>
       </c>
       <c r="Y14" t="n">
-        <v>203497000000</v>
+        <v>112335216116400</v>
       </c>
       <c r="Z14" t="n">
-        <v>205855000000</v>
+        <v>124679592925500</v>
       </c>
       <c r="AA14" t="n">
-        <v>210192000000</v>
+        <v>137718738788600</v>
       </c>
       <c r="AB14" t="n">
-        <v>215717000000</v>
+        <v>153916690148700</v>
       </c>
       <c r="AC14" t="n">
-        <v>224706000000</v>
+        <v>170900423611300</v>
       </c>
       <c r="AD14" t="n">
-        <v>231905000000</v>
+        <v>188996684445900</v>
       </c>
       <c r="AE14" t="n">
-        <v>238518000000</v>
+        <v>201035928565900</v>
       </c>
       <c r="AF14" t="n">
-        <v>236387000000</v>
+        <v>198540960065000</v>
       </c>
       <c r="AG14" t="n">
-        <v>248764000000</v>
+        <v>235973985282900</v>
       </c>
       <c r="AH14" t="n">
-        <v>266124000000</v>
+        <v>269496458603000</v>
       </c>
       <c r="AI14" t="n">
-        <v>273320000000</v>
+        <v>295356668443500</v>
       </c>
     </row>
     <row r="15">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2127,97 +2127,97 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1134838600000</v>
+        <v>45073789000</v>
       </c>
       <c r="F15" t="n">
-        <v>1172960400000</v>
+        <v>48475910000</v>
       </c>
       <c r="G15" t="n">
-        <v>1213802400000</v>
+        <v>54758740000</v>
       </c>
       <c r="H15" t="n">
-        <v>1246973700000</v>
+        <v>60147567000</v>
       </c>
       <c r="I15" t="n">
-        <v>1289669200000</v>
+        <v>69400729000</v>
       </c>
       <c r="J15" t="n">
-        <v>1346317600000</v>
+        <v>80430814000</v>
       </c>
       <c r="K15" t="n">
-        <v>1395148000000</v>
+        <v>92790527000</v>
       </c>
       <c r="L15" t="n">
-        <v>1473517300000</v>
+        <v>108495289000</v>
       </c>
       <c r="M15" t="n">
-        <v>1530070900000</v>
+        <v>122089174000</v>
       </c>
       <c r="N15" t="n">
-        <v>1578330400000</v>
+        <v>135997894000</v>
       </c>
       <c r="O15" t="n">
-        <v>1622312800000</v>
+        <v>145576854000</v>
       </c>
       <c r="P15" t="n">
-        <v>1696107700000</v>
+        <v>156259951000</v>
       </c>
       <c r="Q15" t="n">
-        <v>1762047700000</v>
+        <v>170306765000</v>
       </c>
       <c r="R15" t="n">
-        <v>1846020800000</v>
+        <v>184916243000</v>
       </c>
       <c r="S15" t="n">
-        <v>1937876300000</v>
+        <v>197069396000</v>
       </c>
       <c r="T15" t="n">
-        <v>1989999700000</v>
+        <v>187282983000</v>
       </c>
       <c r="U15" t="n">
-        <v>1935840200000</v>
+        <v>169519714000</v>
       </c>
       <c r="V15" t="n">
-        <v>1996075100000</v>
+        <v>167445750000</v>
       </c>
       <c r="W15" t="n">
-        <v>2062141400000</v>
+        <v>173380117000</v>
       </c>
       <c r="X15" t="n">
-        <v>2088286700000</v>
+        <v>176893623000</v>
       </c>
       <c r="Y15" t="n">
-        <v>2120351900000</v>
+        <v>183192720000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2153733100000</v>
+        <v>200818277000</v>
       </c>
       <c r="AA15" t="n">
-        <v>2201401600000</v>
+        <v>272544313000</v>
       </c>
       <c r="AB15" t="n">
-        <v>2231819200000</v>
+        <v>276205869000</v>
       </c>
       <c r="AC15" t="n">
-        <v>2291680500000</v>
+        <v>308522795000</v>
       </c>
       <c r="AD15" t="n">
-        <v>2355362800000</v>
+        <v>334865749000</v>
       </c>
       <c r="AE15" t="n">
-        <v>2432206800000</v>
+        <v>363674939000</v>
       </c>
       <c r="AF15" t="n">
-        <v>2318276200000</v>
+        <v>382207149000</v>
       </c>
       <c r="AG15" t="n">
-        <v>2508102300000</v>
+        <v>449216546000</v>
       </c>
       <c r="AH15" t="n">
-        <v>2655435000000</v>
+        <v>520935340000</v>
       </c>
       <c r="AI15" t="n">
-        <v>2822454600000</v>
+        <v>509951806000</v>
       </c>
     </row>
     <row r="16">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2242,97 +2242,97 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1757340000000</v>
+        <v>867486210000</v>
       </c>
       <c r="F16" t="n">
-        <v>1838020000000</v>
+        <v>917537533000</v>
       </c>
       <c r="G16" t="n">
-        <v>1899930000000</v>
+        <v>990520900000</v>
       </c>
       <c r="H16" t="n">
-        <v>1928560000000</v>
+        <v>1047745400000</v>
       </c>
       <c r="I16" t="n">
-        <v>1967180000000</v>
+        <v>1095091600000</v>
       </c>
       <c r="J16" t="n">
-        <v>2022310000000</v>
+        <v>1141256800000</v>
       </c>
       <c r="K16" t="n">
-        <v>2077240000000</v>
+        <v>1177549700000</v>
       </c>
       <c r="L16" t="n">
-        <v>2129660000000</v>
+        <v>1244744200000</v>
       </c>
       <c r="M16" t="n">
-        <v>2195530000000</v>
+        <v>1308623100000</v>
       </c>
       <c r="N16" t="n">
-        <v>2223360000000</v>
+        <v>1355522300000</v>
       </c>
       <c r="O16" t="n">
-        <v>2240810000000</v>
+        <v>1399386000000</v>
       </c>
       <c r="P16" t="n">
-        <v>2293040000000</v>
+        <v>1457356200000</v>
       </c>
       <c r="Q16" t="n">
-        <v>2325710000000</v>
+        <v>1499073100000</v>
       </c>
       <c r="R16" t="n">
-        <v>2426180000000</v>
+        <v>1559864200000</v>
       </c>
       <c r="S16" t="n">
-        <v>2542220000000</v>
+        <v>1621714500000</v>
       </c>
       <c r="T16" t="n">
-        <v>2589680000000</v>
+        <v>1643718800000</v>
       </c>
       <c r="U16" t="n">
-        <v>2494870000000</v>
+        <v>1584106800000</v>
       </c>
       <c r="V16" t="n">
-        <v>2616060000000</v>
+        <v>1617944700000</v>
       </c>
       <c r="W16" t="n">
-        <v>2747810000000</v>
+        <v>1657362200000</v>
       </c>
       <c r="X16" t="n">
-        <v>2800380000000</v>
+        <v>1632898500000</v>
       </c>
       <c r="Y16" t="n">
-        <v>2867280000000</v>
+        <v>1621260700000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2985170000000</v>
+        <v>1635870700000</v>
       </c>
       <c r="AA16" t="n">
-        <v>3085650000000</v>
+        <v>1663277700000</v>
       </c>
       <c r="AB16" t="n">
-        <v>3196110000000</v>
+        <v>1704856700000</v>
       </c>
       <c r="AC16" t="n">
-        <v>3331110000000</v>
+        <v>1744493000000</v>
       </c>
       <c r="AD16" t="n">
-        <v>3431130000000</v>
+        <v>1777744400000</v>
       </c>
       <c r="AE16" t="n">
-        <v>3534880000000</v>
+        <v>1804066800000</v>
       </c>
       <c r="AF16" t="n">
-        <v>3449620000000</v>
+        <v>1670011900000</v>
       </c>
       <c r="AG16" t="n">
-        <v>3676460000000</v>
+        <v>1842507400000</v>
       </c>
       <c r="AH16" t="n">
-        <v>3953850000000</v>
+        <v>1997054900000</v>
       </c>
       <c r="AI16" t="n">
-        <v>4185550000000</v>
+        <v>2128001400000</v>
       </c>
     </row>
     <row r="17">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2357,97 +2357,97 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32103058400</v>
+        <v>1555254072800</v>
       </c>
       <c r="F17" t="n">
-        <v>39036009800</v>
+        <v>2160770675800</v>
       </c>
       <c r="G17" t="n">
-        <v>51281997600</v>
+        <v>3274384949700</v>
       </c>
       <c r="H17" t="n">
-        <v>61745943200</v>
+        <v>4005905771000</v>
       </c>
       <c r="I17" t="n">
-        <v>75442860400</v>
+        <v>4340454054100.001</v>
       </c>
       <c r="J17" t="n">
-        <v>86200247200</v>
+        <v>4790571869500</v>
       </c>
       <c r="K17" t="n">
-        <v>92048369600</v>
+        <v>5376276965400</v>
       </c>
       <c r="L17" t="n">
-        <v>106654200000</v>
+        <v>6265668346500</v>
       </c>
       <c r="M17" t="n">
-        <v>118415700000</v>
+        <v>7166084523000</v>
       </c>
       <c r="N17" t="n">
-        <v>129166600000</v>
+        <v>7312517881300</v>
       </c>
       <c r="O17" t="n">
-        <v>142817800000</v>
+        <v>7891241683000</v>
       </c>
       <c r="P17" t="n">
-        <v>161507500000</v>
+        <v>9465265240700</v>
       </c>
       <c r="Q17" t="n">
-        <v>183747400000</v>
+        <v>11736268677000</v>
       </c>
       <c r="R17" t="n">
-        <v>206288000000</v>
+        <v>13701545531000</v>
       </c>
       <c r="S17" t="n">
-        <v>233567200000</v>
+        <v>15974088180000</v>
       </c>
       <c r="T17" t="n">
-        <v>262416900000</v>
+        <v>18322512467000</v>
       </c>
       <c r="U17" t="n">
-        <v>275632200000</v>
+        <v>18812595596000</v>
       </c>
       <c r="V17" t="n">
-        <v>299286000000</v>
+        <v>20863367561000</v>
       </c>
       <c r="W17" t="n">
-        <v>335027800000</v>
+        <v>23393792065000</v>
       </c>
       <c r="X17" t="n">
-        <v>361348500000</v>
+        <v>25415464299000</v>
       </c>
       <c r="Y17" t="n">
-        <v>376539400000</v>
+        <v>27417720539000</v>
       </c>
       <c r="Z17" t="n">
-        <v>414633500000</v>
+        <v>30240583633000</v>
       </c>
       <c r="AA17" t="n">
-        <v>460405200000</v>
+        <v>33216175582000</v>
       </c>
       <c r="AB17" t="n">
-        <v>495921900000</v>
+        <v>37637585996000</v>
       </c>
       <c r="AC17" t="n">
-        <v>543403000000</v>
+        <v>41058842552000</v>
       </c>
       <c r="AD17" t="n">
-        <v>575284900000</v>
+        <v>45886302017000</v>
       </c>
       <c r="AE17" t="n">
-        <v>609827000000</v>
+        <v>51035216506000</v>
       </c>
       <c r="AF17" t="n">
-        <v>574041800000</v>
+        <v>49435649383000</v>
       </c>
       <c r="AG17" t="n">
-        <v>675932700000</v>
+        <v>55744385864000</v>
       </c>
       <c r="AH17" t="n">
-        <v>769494100000</v>
+        <v>61993490441700</v>
       </c>
       <c r="AI17" t="n">
-        <v>846309200000</v>
+        <v>69943557424500</v>
       </c>
     </row>
     <row r="18">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hong Kong SAR, China</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2472,97 +2472,97 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>931010000000</v>
+        <v>11170052500</v>
       </c>
       <c r="F18" t="n">
-        <v>1049610000000</v>
+        <v>17862796500</v>
       </c>
       <c r="G18" t="n">
-        <v>1119006000000</v>
+        <v>27629314600</v>
       </c>
       <c r="H18" t="n">
-        <v>1235301000000</v>
+        <v>45515261400</v>
       </c>
       <c r="I18" t="n">
-        <v>1373083000000</v>
+        <v>56259542300</v>
       </c>
       <c r="J18" t="n">
-        <v>1308074000000</v>
+        <v>65917213200</v>
       </c>
       <c r="K18" t="n">
-        <v>1285946000000</v>
+        <v>80294385500</v>
       </c>
       <c r="L18" t="n">
-        <v>1337501000000</v>
+        <v>90307729900</v>
       </c>
       <c r="M18" t="n">
-        <v>1321142000000</v>
+        <v>116978761400</v>
       </c>
       <c r="N18" t="n">
-        <v>1297341000000</v>
+        <v>140902062600</v>
       </c>
       <c r="O18" t="n">
-        <v>1256669000000</v>
+        <v>156571193600</v>
       </c>
       <c r="P18" t="n">
-        <v>1316949000000</v>
+        <v>179233890400</v>
       </c>
       <c r="Q18" t="n">
-        <v>1412125000000</v>
+        <v>204516281100</v>
       </c>
       <c r="R18" t="n">
-        <v>1503351000000</v>
+        <v>241557230800</v>
       </c>
       <c r="S18" t="n">
-        <v>1650756000000</v>
+        <v>279371709900</v>
       </c>
       <c r="T18" t="n">
-        <v>1707487000000</v>
+        <v>313972580300</v>
       </c>
       <c r="U18" t="n">
-        <v>1659245000000</v>
+        <v>337481536000</v>
       </c>
       <c r="V18" t="n">
-        <v>1776332000000</v>
+        <v>387549074600</v>
       </c>
       <c r="W18" t="n">
-        <v>1934430000000</v>
+        <v>424947383000</v>
       </c>
       <c r="X18" t="n">
-        <v>2037059000000</v>
+        <v>473491595600</v>
       </c>
       <c r="Y18" t="n">
-        <v>2138305000000</v>
+        <v>517732700300</v>
       </c>
       <c r="Z18" t="n">
-        <v>2260005000000</v>
+        <v>563666356000</v>
       </c>
       <c r="AA18" t="n">
-        <v>2398280000000</v>
+        <v>648075352100</v>
       </c>
       <c r="AB18" t="n">
-        <v>2490598000000</v>
+        <v>761028906900</v>
       </c>
       <c r="AC18" t="n">
-        <v>2659611000000</v>
+        <v>843423195300</v>
       </c>
       <c r="AD18" t="n">
-        <v>2835429000000</v>
+        <v>905940319800</v>
       </c>
       <c r="AE18" t="n">
-        <v>2845022000000</v>
+        <v>970297218600</v>
       </c>
       <c r="AF18" t="n">
-        <v>2675793000000</v>
+        <v>988863462400</v>
       </c>
       <c r="AG18" t="n">
-        <v>2867973000000</v>
+        <v>1058441751700</v>
       </c>
       <c r="AH18" t="n">
-        <v>2808981000000</v>
+        <v>1205729029900</v>
       </c>
       <c r="AI18" t="n">
-        <v>2981601000000</v>
+        <v>1338677862400</v>
       </c>
     </row>
     <row r="19">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2587,97 +2587,97 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8759924253799.999</v>
+        <v>360320700000</v>
       </c>
       <c r="F19" t="n">
-        <v>10275700589000</v>
+        <v>472774100000</v>
       </c>
       <c r="G19" t="n">
-        <v>12055826758000</v>
+        <v>604729000000</v>
       </c>
       <c r="H19" t="n">
-        <v>13948159747000</v>
+        <v>791980000000</v>
       </c>
       <c r="I19" t="n">
-        <v>15452938758000</v>
+        <v>1119509000000</v>
       </c>
       <c r="J19" t="n">
-        <v>17722970117000</v>
+        <v>1609776000000</v>
       </c>
       <c r="K19" t="n">
-        <v>19882615729000</v>
+        <v>2190320000000</v>
       </c>
       <c r="L19" t="n">
-        <v>21398856906000</v>
+        <v>2552732500000</v>
       </c>
       <c r="M19" t="n">
-        <v>23152429571000</v>
+        <v>3548472200000</v>
       </c>
       <c r="N19" t="n">
-        <v>24926137847000</v>
+        <v>5625254700000</v>
       </c>
       <c r="O19" t="n">
-        <v>27925301414000</v>
+        <v>7716616200000</v>
       </c>
       <c r="P19" t="n">
-        <v>31863319237500</v>
+        <v>9078928500000</v>
       </c>
       <c r="Q19" t="n">
-        <v>36321246607300</v>
+        <v>12286765400000</v>
       </c>
       <c r="R19" t="n">
-        <v>42546289837700</v>
+        <v>16852757800000</v>
       </c>
       <c r="S19" t="n">
-        <v>48986620590700</v>
+        <v>23336112700000</v>
       </c>
       <c r="T19" t="n">
-        <v>55141523846600</v>
+        <v>29233288000000</v>
       </c>
       <c r="U19" t="n">
-        <v>63664065417500</v>
+        <v>33894039100000</v>
       </c>
       <c r="V19" t="n">
-        <v>76344721043800</v>
+        <v>39776764900000</v>
       </c>
       <c r="W19" t="n">
-        <v>87363287113700</v>
+        <v>46307887700000</v>
       </c>
       <c r="X19" t="n">
-        <v>99440131041500</v>
+        <v>51259260000000</v>
       </c>
       <c r="Y19" t="n">
-        <v>112335216116400</v>
+        <v>58011626000000</v>
       </c>
       <c r="Z19" t="n">
-        <v>124679592925500</v>
+        <v>65204832345007.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>137718738788600</v>
+        <v>72650448017169.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>153916690148700</v>
+        <v>79690363000000</v>
       </c>
       <c r="AC19" t="n">
-        <v>170900423611300</v>
+        <v>89547993900000</v>
       </c>
       <c r="AD19" t="n">
-        <v>188996684445900</v>
+        <v>100244307200000</v>
       </c>
       <c r="AE19" t="n">
-        <v>201035928565900</v>
+        <v>112633324500000</v>
       </c>
       <c r="AF19" t="n">
-        <v>198540960065000</v>
+        <v>107916476500000</v>
       </c>
       <c r="AG19" t="n">
-        <v>235973985282900</v>
+        <v>113480192800000</v>
       </c>
       <c r="AH19" t="n">
-        <v>269496458603000</v>
+        <v>125338951900000</v>
       </c>
       <c r="AI19" t="n">
-        <v>295356668443500</v>
+        <v>140190999900000</v>
       </c>
     </row>
     <row r="20">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2702,97 +2702,97 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>45073789000</v>
+        <v>175682000000</v>
       </c>
       <c r="F20" t="n">
-        <v>48475910000</v>
+        <v>199272000000</v>
       </c>
       <c r="G20" t="n">
-        <v>54758740000</v>
+        <v>219175000000</v>
       </c>
       <c r="H20" t="n">
-        <v>60147567000</v>
+        <v>248913000000</v>
       </c>
       <c r="I20" t="n">
-        <v>69400729000</v>
+        <v>280513000000</v>
       </c>
       <c r="J20" t="n">
-        <v>80430814000</v>
+        <v>300845000000</v>
       </c>
       <c r="K20" t="n">
-        <v>92790527000</v>
+        <v>342036000000</v>
       </c>
       <c r="L20" t="n">
-        <v>108495289000</v>
+        <v>379488000000</v>
       </c>
       <c r="M20" t="n">
-        <v>122089174000</v>
+        <v>441518545600</v>
       </c>
       <c r="N20" t="n">
-        <v>135997894000</v>
+        <v>459443000000</v>
       </c>
       <c r="O20" t="n">
-        <v>145576854000</v>
+        <v>492231000000</v>
       </c>
       <c r="P20" t="n">
-        <v>156259951000</v>
+        <v>536749000000</v>
       </c>
       <c r="Q20" t="n">
-        <v>170306765000</v>
+        <v>589412000000</v>
       </c>
       <c r="R20" t="n">
-        <v>184916243000</v>
+        <v>654084000000</v>
       </c>
       <c r="S20" t="n">
-        <v>197069396000</v>
+        <v>727827000000</v>
       </c>
       <c r="T20" t="n">
-        <v>187282983000</v>
+        <v>815658000000</v>
       </c>
       <c r="U20" t="n">
-        <v>169519714000</v>
+        <v>988272000000</v>
       </c>
       <c r="V20" t="n">
-        <v>167445750000</v>
+        <v>1192774000000</v>
       </c>
       <c r="W20" t="n">
-        <v>173380117000</v>
+        <v>1559222569200</v>
       </c>
       <c r="X20" t="n">
-        <v>176893623000</v>
+        <v>1758379177900</v>
       </c>
       <c r="Y20" t="n">
-        <v>183192720000</v>
+        <v>1949294818500</v>
       </c>
       <c r="Z20" t="n">
-        <v>200818277000</v>
+        <v>2232525283500</v>
       </c>
       <c r="AA20" t="n">
-        <v>272544313000</v>
+        <v>2423638482800</v>
       </c>
       <c r="AB20" t="n">
-        <v>276205869000</v>
+        <v>2608184437700</v>
       </c>
       <c r="AC20" t="n">
-        <v>308522795000</v>
+        <v>3077144919300</v>
       </c>
       <c r="AD20" t="n">
-        <v>334865749000</v>
+        <v>3455949289800</v>
       </c>
       <c r="AE20" t="n">
-        <v>363674939000</v>
+        <v>3858930402400</v>
       </c>
       <c r="AF20" t="n">
-        <v>382207149000</v>
+        <v>3888703650900</v>
       </c>
       <c r="AG20" t="n">
-        <v>449216546000</v>
+        <v>4352550241000</v>
       </c>
       <c r="AH20" t="n">
-        <v>520935340000</v>
+        <v>4976557695705.94</v>
       </c>
       <c r="AI20" t="n">
-        <v>509951806000</v>
+        <v>5348527637638.33</v>
       </c>
     </row>
     <row r="21">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2817,97 +2817,97 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>867486210000</v>
+        <v>298410614000</v>
       </c>
       <c r="F21" t="n">
-        <v>917537533000</v>
+        <v>313584511000</v>
       </c>
       <c r="G21" t="n">
-        <v>990520900000</v>
+        <v>330032000000</v>
       </c>
       <c r="H21" t="n">
-        <v>1047745400000</v>
+        <v>345300000000</v>
       </c>
       <c r="I21" t="n">
-        <v>1095091600000</v>
+        <v>369660000000</v>
       </c>
       <c r="J21" t="n">
-        <v>1141256800000</v>
+        <v>394839000000</v>
       </c>
       <c r="K21" t="n">
-        <v>1177549700000</v>
+        <v>420143000000</v>
       </c>
       <c r="L21" t="n">
-        <v>1244744200000</v>
+        <v>452191000000</v>
       </c>
       <c r="M21" t="n">
-        <v>1308623100000</v>
+        <v>482941000000</v>
       </c>
       <c r="N21" t="n">
-        <v>1355522300000</v>
+        <v>502901000000</v>
       </c>
       <c r="O21" t="n">
-        <v>1399386000000</v>
+        <v>514901000000</v>
       </c>
       <c r="P21" t="n">
-        <v>1457356200000</v>
+        <v>531573000000</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499073100000</v>
+        <v>553122000000</v>
       </c>
       <c r="R21" t="n">
-        <v>1559864200000</v>
+        <v>587444000000</v>
       </c>
       <c r="S21" t="n">
-        <v>1621714500000</v>
+        <v>622775000000</v>
       </c>
       <c r="T21" t="n">
-        <v>1643718800000</v>
+        <v>651299000000</v>
       </c>
       <c r="U21" t="n">
-        <v>1584106800000</v>
+        <v>630173000000</v>
       </c>
       <c r="V21" t="n">
-        <v>1617944700000</v>
+        <v>643022000000</v>
       </c>
       <c r="W21" t="n">
-        <v>1657362200000</v>
+        <v>656013000000</v>
       </c>
       <c r="X21" t="n">
-        <v>1632898500000</v>
+        <v>658232000000</v>
       </c>
       <c r="Y21" t="n">
-        <v>1621260700000</v>
+        <v>665567000000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1635870700000</v>
+        <v>678627000000</v>
       </c>
       <c r="AA21" t="n">
-        <v>1663277700000</v>
+        <v>699175000000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1704856700000</v>
+        <v>720175000000</v>
       </c>
       <c r="AC21" t="n">
-        <v>1744493000000</v>
+        <v>750861000000</v>
       </c>
       <c r="AD21" t="n">
-        <v>1777744400000</v>
+        <v>787273000000</v>
       </c>
       <c r="AE21" t="n">
-        <v>1804066800000</v>
+        <v>829767000000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1670011900000</v>
+        <v>816463000000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1842507400000</v>
+        <v>891550000000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1997054900000</v>
+        <v>993820000000</v>
       </c>
       <c r="AI21" t="n">
-        <v>2128001400000</v>
+        <v>1067599000000</v>
       </c>
     </row>
     <row r="22">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2932,97 +2932,97 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5354700000</v>
+        <v>855401000000</v>
       </c>
       <c r="F22" t="n">
-        <v>12019200000</v>
+        <v>897242000000</v>
       </c>
       <c r="G22" t="n">
-        <v>16145100000</v>
+        <v>963138000000</v>
       </c>
       <c r="H22" t="n">
-        <v>23399300000</v>
+        <v>1054672000000</v>
       </c>
       <c r="I22" t="n">
-        <v>30685700000</v>
+        <v>1141340000000</v>
       </c>
       <c r="J22" t="n">
-        <v>34181400000</v>
+        <v>1163683000000</v>
       </c>
       <c r="K22" t="n">
-        <v>48744000000</v>
+        <v>1266463000000</v>
       </c>
       <c r="L22" t="n">
-        <v>65357700000</v>
+        <v>1509132000000</v>
       </c>
       <c r="M22" t="n">
-        <v>73883500000</v>
+        <v>1566708000000</v>
       </c>
       <c r="N22" t="n">
-        <v>75366800000</v>
+        <v>1564145000000</v>
       </c>
       <c r="O22" t="n">
-        <v>83871400000</v>
+        <v>1624095000000</v>
       </c>
       <c r="P22" t="n">
-        <v>94350700000</v>
+        <v>1788123000000</v>
       </c>
       <c r="Q22" t="n">
-        <v>100899200000</v>
+        <v>1997037000000</v>
       </c>
       <c r="R22" t="n">
-        <v>113800100000</v>
+        <v>2224871000000</v>
       </c>
       <c r="S22" t="n">
-        <v>141897700000</v>
+        <v>2360174000000</v>
       </c>
       <c r="T22" t="n">
-        <v>187991900000</v>
+        <v>2622135000000</v>
       </c>
       <c r="U22" t="n">
-        <v>201222900000</v>
+        <v>2439712000000</v>
       </c>
       <c r="V22" t="n">
-        <v>220369300000</v>
+        <v>2605351000000</v>
       </c>
       <c r="W22" t="n">
-        <v>285989100000</v>
+        <v>2809929000000</v>
       </c>
       <c r="X22" t="n">
-        <v>310471300000</v>
+        <v>2983082000000</v>
       </c>
       <c r="Y22" t="n">
-        <v>355294800000</v>
+        <v>3090335000000</v>
       </c>
       <c r="Z22" t="n">
-        <v>400694000000</v>
+        <v>3161776000000</v>
       </c>
       <c r="AA22" t="n">
-        <v>430489400000</v>
+        <v>3130183000000</v>
       </c>
       <c r="AB22" t="n">
-        <v>476331200000</v>
+        <v>3116035000000</v>
       </c>
       <c r="AC22" t="n">
-        <v>530475700000</v>
+        <v>3323103000000</v>
       </c>
       <c r="AD22" t="n">
-        <v>569385600000</v>
+        <v>3576581000000</v>
       </c>
       <c r="AE22" t="n">
-        <v>654015200000</v>
+        <v>3596937000000</v>
       </c>
       <c r="AF22" t="n">
-        <v>639688600000</v>
+        <v>3461575000000</v>
       </c>
       <c r="AG22" t="n">
-        <v>782854300000</v>
+        <v>4323931000000</v>
       </c>
       <c r="AH22" t="n">
-        <v>1020744600000</v>
+        <v>5708190000000</v>
       </c>
       <c r="AI22" t="n">
-        <v>1228898800000</v>
+        <v>5126500000000</v>
       </c>
     </row>
     <row r="23">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3047,97 +3047,97 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>160400000</v>
+        <v>1341629000000</v>
       </c>
       <c r="F23" t="n">
-        <v>132200000</v>
+        <v>1573097000000</v>
       </c>
       <c r="G23" t="n">
-        <v>134800000</v>
+        <v>1865922000000</v>
       </c>
       <c r="H23" t="n">
-        <v>159400000</v>
+        <v>2120173000000</v>
       </c>
       <c r="I23" t="n">
-        <v>295900000</v>
+        <v>2428312000000</v>
       </c>
       <c r="J23" t="n">
-        <v>359600000</v>
+        <v>2677656000000</v>
       </c>
       <c r="K23" t="n">
-        <v>441800000</v>
+        <v>2938379000000</v>
       </c>
       <c r="L23" t="n">
-        <v>874000000</v>
+        <v>5147094961300</v>
       </c>
       <c r="M23" t="n">
-        <v>906000000</v>
+        <v>5655817907900</v>
       </c>
       <c r="N23" t="n">
-        <v>927000000</v>
+        <v>6030116987000</v>
       </c>
       <c r="O23" t="n">
-        <v>748000000</v>
+        <v>6581622987800</v>
       </c>
       <c r="P23" t="n">
-        <v>897000000</v>
+        <v>7611677902900</v>
       </c>
       <c r="Q23" t="n">
-        <v>949000000</v>
+        <v>8619231796800.001</v>
       </c>
       <c r="R23" t="n">
-        <v>1119000000</v>
+        <v>9689070773700</v>
       </c>
       <c r="S23" t="n">
-        <v>1373000000</v>
+        <v>11165234339600</v>
       </c>
       <c r="T23" t="n">
-        <v>1726000000</v>
+        <v>12647136760800</v>
       </c>
       <c r="U23" t="n">
-        <v>1768000000</v>
+        <v>14705697558500</v>
       </c>
       <c r="V23" t="n">
-        <v>1998000000</v>
+        <v>16507053350300</v>
       </c>
       <c r="W23" t="n">
-        <v>2398000000</v>
+        <v>19731030411400</v>
       </c>
       <c r="X23" t="n">
-        <v>2791614000</v>
+        <v>22344639137200</v>
       </c>
       <c r="Y23" t="n">
-        <v>3177198100</v>
+        <v>25042169405200</v>
       </c>
       <c r="Z23" t="n">
-        <v>3225652000</v>
+        <v>27952815352700</v>
       </c>
       <c r="AA23" t="n">
-        <v>3227075700</v>
+        <v>30425879918400</v>
       </c>
       <c r="AB23" t="n">
-        <v>3398419600</v>
+        <v>32725049000000</v>
       </c>
       <c r="AC23" t="n">
-        <v>3390703400</v>
+        <v>35552819000000</v>
       </c>
       <c r="AD23" t="n">
-        <v>3422754800</v>
+        <v>39189810000000</v>
       </c>
       <c r="AE23" t="n">
-        <v>3319596500</v>
+        <v>43798401000000</v>
       </c>
       <c r="AF23" t="n">
-        <v>3176126300</v>
+        <v>47540409000000</v>
       </c>
       <c r="AG23" t="n">
-        <v>3513049500</v>
+        <v>55836225000000</v>
       </c>
       <c r="AH23" t="n">
-        <v>4001047000</v>
+        <v>66657868000000</v>
       </c>
       <c r="AI23" t="n">
-        <v>4240000000</v>
+        <v>83955422000000</v>
       </c>
     </row>
     <row r="24">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3162,97 +3162,97 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1555254072800</v>
+        <v>97923100000</v>
       </c>
       <c r="F24" t="n">
-        <v>2160770675800</v>
+        <v>112555400000</v>
       </c>
       <c r="G24" t="n">
-        <v>3274384949700</v>
+        <v>124463300000</v>
       </c>
       <c r="H24" t="n">
-        <v>4005905771000</v>
+        <v>135777200000</v>
       </c>
       <c r="I24" t="n">
-        <v>4340454054100.001</v>
+        <v>148664400000</v>
       </c>
       <c r="J24" t="n">
-        <v>4790571869500</v>
+        <v>143474900000</v>
       </c>
       <c r="K24" t="n">
-        <v>5376276965400</v>
+        <v>146252500000</v>
       </c>
       <c r="L24" t="n">
-        <v>6265668346500</v>
+        <v>165632400000</v>
       </c>
       <c r="M24" t="n">
-        <v>7166084523000</v>
+        <v>160885600000</v>
       </c>
       <c r="N24" t="n">
-        <v>7312517881300</v>
+        <v>165698100000</v>
       </c>
       <c r="O24" t="n">
-        <v>7891241683000</v>
+        <v>170117900000</v>
       </c>
       <c r="P24" t="n">
-        <v>9465265240700</v>
+        <v>194433000000</v>
       </c>
       <c r="Q24" t="n">
-        <v>11736268677000</v>
+        <v>212723000000</v>
       </c>
       <c r="R24" t="n">
-        <v>13701545531000</v>
+        <v>236158800000</v>
       </c>
       <c r="S24" t="n">
-        <v>15974088180000</v>
+        <v>272697600000</v>
       </c>
       <c r="T24" t="n">
-        <v>18322512467000</v>
+        <v>273941600000</v>
       </c>
       <c r="U24" t="n">
-        <v>18812595596000</v>
+        <v>282394500000</v>
       </c>
       <c r="V24" t="n">
-        <v>20863367561000</v>
+        <v>326980100000</v>
       </c>
       <c r="W24" t="n">
-        <v>23393792065000</v>
+        <v>351367900000</v>
       </c>
       <c r="X24" t="n">
-        <v>25415464299000</v>
+        <v>368770500000</v>
       </c>
       <c r="Y24" t="n">
-        <v>27417720539000</v>
+        <v>384870300000</v>
       </c>
       <c r="Z24" t="n">
-        <v>30240583633000</v>
+        <v>398947900000</v>
       </c>
       <c r="AA24" t="n">
-        <v>33216175582000</v>
+        <v>423444100000</v>
       </c>
       <c r="AB24" t="n">
-        <v>37637585996000</v>
+        <v>440787700000</v>
       </c>
       <c r="AC24" t="n">
-        <v>41058842552000</v>
+        <v>474012400000</v>
       </c>
       <c r="AD24" t="n">
-        <v>45886302017000</v>
+        <v>508368700000</v>
       </c>
       <c r="AE24" t="n">
-        <v>51035216506000</v>
+        <v>514153400000</v>
       </c>
       <c r="AF24" t="n">
-        <v>49435649383000</v>
+        <v>482203800000</v>
       </c>
       <c r="AG24" t="n">
-        <v>55744385864000</v>
+        <v>583221500000</v>
       </c>
       <c r="AH24" t="n">
-        <v>61993490441700</v>
+        <v>687230400000</v>
       </c>
       <c r="AI24" t="n">
-        <v>69943557424500</v>
+        <v>673300300000</v>
       </c>
     </row>
     <row r="25">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3277,97 +3277,97 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11170052500</v>
+        <v>1655117000000</v>
       </c>
       <c r="F25" t="n">
-        <v>17862796500</v>
+        <v>1764662000000</v>
       </c>
       <c r="G25" t="n">
-        <v>27629314600</v>
+        <v>1904968000000</v>
       </c>
       <c r="H25" t="n">
-        <v>45515261400</v>
+        <v>1957833000000</v>
       </c>
       <c r="I25" t="n">
-        <v>56259542300</v>
+        <v>2048077000000</v>
       </c>
       <c r="J25" t="n">
-        <v>65917213200</v>
+        <v>2153545000000</v>
       </c>
       <c r="K25" t="n">
-        <v>80294385500</v>
+        <v>2266545000000</v>
       </c>
       <c r="L25" t="n">
-        <v>90307729900</v>
+        <v>2408790000000</v>
       </c>
       <c r="M25" t="n">
-        <v>116978761400</v>
+        <v>2504799000000</v>
       </c>
       <c r="N25" t="n">
-        <v>140902062600</v>
+        <v>2603441000000</v>
       </c>
       <c r="O25" t="n">
-        <v>156571193600</v>
+        <v>2701423000000</v>
       </c>
       <c r="P25" t="n">
-        <v>179233890400</v>
+        <v>2825999000000</v>
       </c>
       <c r="Q25" t="n">
-        <v>204516281100</v>
+        <v>2927141000000</v>
       </c>
       <c r="R25" t="n">
-        <v>241557230800</v>
+        <v>3117514000000</v>
       </c>
       <c r="S25" t="n">
-        <v>279371709900</v>
+        <v>3312151000000</v>
       </c>
       <c r="T25" t="n">
-        <v>313972580300</v>
+        <v>3391889000000</v>
       </c>
       <c r="U25" t="n">
-        <v>337481536000</v>
+        <v>3324151000000</v>
       </c>
       <c r="V25" t="n">
-        <v>387549074600</v>
+        <v>3551531000000</v>
       </c>
       <c r="W25" t="n">
-        <v>424947383000</v>
+        <v>3704835000000</v>
       </c>
       <c r="X25" t="n">
-        <v>473491595600</v>
+        <v>3724512000000</v>
       </c>
       <c r="Y25" t="n">
-        <v>517732700300</v>
+        <v>3804994000000</v>
       </c>
       <c r="Z25" t="n">
-        <v>563666356000</v>
+        <v>3963683000000</v>
       </c>
       <c r="AA25" t="n">
-        <v>648075352100</v>
+        <v>4231745000000</v>
       </c>
       <c r="AB25" t="n">
-        <v>761028906900</v>
+        <v>4402732000000</v>
       </c>
       <c r="AC25" t="n">
-        <v>843423195300</v>
+        <v>4582907000000</v>
       </c>
       <c r="AD25" t="n">
-        <v>905940319800</v>
+        <v>4792294000000</v>
       </c>
       <c r="AE25" t="n">
-        <v>970297218600</v>
+        <v>5033443000000</v>
       </c>
       <c r="AF25" t="n">
-        <v>988863462400</v>
+        <v>5020978000000</v>
       </c>
       <c r="AG25" t="n">
-        <v>1058441751700</v>
+        <v>5464876000000</v>
       </c>
       <c r="AH25" t="n">
-        <v>1205729029900</v>
+        <v>5865211000000</v>
       </c>
       <c r="AI25" t="n">
-        <v>1338677862400</v>
+        <v>6206525000000</v>
       </c>
     </row>
     <row r="26">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3392,97 +3392,97 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>360320700000</v>
+        <v>402258170000</v>
       </c>
       <c r="F26" t="n">
-        <v>472774100000</v>
+        <v>412190663000</v>
       </c>
       <c r="G26" t="n">
-        <v>604729000000</v>
+        <v>417228341000</v>
       </c>
       <c r="H26" t="n">
-        <v>791980000000</v>
+        <v>420368494000</v>
       </c>
       <c r="I26" t="n">
-        <v>1119509000000</v>
+        <v>427826113000</v>
       </c>
       <c r="J26" t="n">
-        <v>1609776000000</v>
+        <v>439954879000</v>
       </c>
       <c r="K26" t="n">
-        <v>2190320000000</v>
+        <v>447465787000</v>
       </c>
       <c r="L26" t="n">
-        <v>2552732500000</v>
+        <v>471540038000</v>
       </c>
       <c r="M26" t="n">
-        <v>3548472200000</v>
+        <v>483636918000</v>
       </c>
       <c r="N26" t="n">
-        <v>5625254700000</v>
+        <v>482077197000</v>
       </c>
       <c r="O26" t="n">
-        <v>7716616200000</v>
+        <v>487606519000</v>
       </c>
       <c r="P26" t="n">
-        <v>9078928500000</v>
+        <v>502265680000</v>
       </c>
       <c r="Q26" t="n">
-        <v>12286765400000</v>
+        <v>520848315000</v>
       </c>
       <c r="R26" t="n">
-        <v>16852757800000</v>
+        <v>553721552000</v>
       </c>
       <c r="S26" t="n">
-        <v>23336112700000</v>
+        <v>589085155000</v>
       </c>
       <c r="T26" t="n">
-        <v>29233288000000</v>
+        <v>614407719000</v>
       </c>
       <c r="U26" t="n">
-        <v>33894039100000</v>
+        <v>603039074000</v>
       </c>
       <c r="V26" t="n">
-        <v>39776764900000</v>
+        <v>624545119000</v>
       </c>
       <c r="W26" t="n">
-        <v>46307887700000</v>
+        <v>635738744000</v>
       </c>
       <c r="X26" t="n">
-        <v>51259260000000</v>
+        <v>643645589000</v>
       </c>
       <c r="Y26" t="n">
-        <v>58011626000000</v>
+        <v>654611669000</v>
       </c>
       <c r="Z26" t="n">
-        <v>65204832345007.8</v>
+        <v>665618374000</v>
       </c>
       <c r="AA26" t="n">
-        <v>72650448017169.8</v>
+        <v>668006382000</v>
       </c>
       <c r="AB26" t="n">
-        <v>79690363000000</v>
+        <v>677848331000</v>
       </c>
       <c r="AC26" t="n">
-        <v>89547993900000</v>
+        <v>684558467000</v>
       </c>
       <c r="AD26" t="n">
-        <v>100244307200000</v>
+        <v>709521556000</v>
       </c>
       <c r="AE26" t="n">
-        <v>112633324500000</v>
+        <v>716878590000</v>
       </c>
       <c r="AF26" t="n">
-        <v>107916476500000</v>
+        <v>696619959000</v>
       </c>
       <c r="AG26" t="n">
-        <v>113480192800000</v>
+        <v>743330231000</v>
       </c>
       <c r="AH26" t="n">
-        <v>125338951900000</v>
+        <v>781460269000</v>
       </c>
       <c r="AI26" t="n">
-        <v>140190999900000</v>
+        <v>795110102000</v>
       </c>
     </row>
     <row r="27">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3507,97 +3507,97 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>175682000000</v>
+        <v>707734000000</v>
       </c>
       <c r="F27" t="n">
-        <v>199272000000</v>
+        <v>745196000000</v>
       </c>
       <c r="G27" t="n">
-        <v>219175000000</v>
+        <v>851845000000</v>
       </c>
       <c r="H27" t="n">
-        <v>248913000000</v>
+        <v>909993000000</v>
       </c>
       <c r="I27" t="n">
-        <v>280513000000</v>
+        <v>953405000000</v>
       </c>
       <c r="J27" t="n">
-        <v>300845000000</v>
+        <v>998501000000</v>
       </c>
       <c r="K27" t="n">
-        <v>342036000000</v>
+        <v>1043248000000</v>
       </c>
       <c r="L27" t="n">
-        <v>379488000000</v>
+        <v>1100752000000</v>
       </c>
       <c r="M27" t="n">
-        <v>441518545600</v>
+        <v>1146135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>459443000000</v>
+        <v>1191439000000</v>
       </c>
       <c r="O27" t="n">
-        <v>492231000000</v>
+        <v>1258334000000</v>
       </c>
       <c r="P27" t="n">
-        <v>536749000000</v>
+        <v>1322637000000</v>
       </c>
       <c r="Q27" t="n">
-        <v>589412000000</v>
+        <v>1398749000000</v>
       </c>
       <c r="R27" t="n">
-        <v>654084000000</v>
+        <v>1472038000000</v>
       </c>
       <c r="S27" t="n">
-        <v>727827000000</v>
+        <v>1544637000000</v>
       </c>
       <c r="T27" t="n">
-        <v>815658000000</v>
+        <v>1593600000000</v>
       </c>
       <c r="U27" t="n">
-        <v>988272000000</v>
+        <v>1548802000000</v>
       </c>
       <c r="V27" t="n">
-        <v>1192774000000</v>
+        <v>1608553000000</v>
       </c>
       <c r="W27" t="n">
-        <v>1559222569200</v>
+        <v>1662590000000</v>
       </c>
       <c r="X27" t="n">
-        <v>1758379177900</v>
+        <v>1713715000000</v>
       </c>
       <c r="Y27" t="n">
-        <v>1949294818500</v>
+        <v>1781361000000</v>
       </c>
       <c r="Z27" t="n">
-        <v>2232525283500</v>
+        <v>1862514000000</v>
       </c>
       <c r="AA27" t="n">
-        <v>2423638482800</v>
+        <v>1916451000000</v>
       </c>
       <c r="AB27" t="n">
-        <v>2608184437700</v>
+        <v>1991645000000</v>
       </c>
       <c r="AC27" t="n">
-        <v>3077144919300</v>
+        <v>2082482000000</v>
       </c>
       <c r="AD27" t="n">
-        <v>3455949289800</v>
+        <v>2152304000000</v>
       </c>
       <c r="AE27" t="n">
-        <v>3858930402400</v>
+        <v>2233921000000</v>
       </c>
       <c r="AF27" t="n">
-        <v>3888703650900</v>
+        <v>2103486000000</v>
       </c>
       <c r="AG27" t="n">
-        <v>4352550241000</v>
+        <v>2285400000000</v>
       </c>
       <c r="AH27" t="n">
-        <v>4976557695705.94</v>
+        <v>2526428000000</v>
       </c>
       <c r="AI27" t="n">
-        <v>5348527637638.33</v>
+        <v>2720029000000</v>
       </c>
     </row>
     <row r="28">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3622,97 +3622,97 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>298410614000</v>
+        <v>6858559000000</v>
       </c>
       <c r="F28" t="n">
-        <v>313584511000</v>
+        <v>7287236000000</v>
       </c>
       <c r="G28" t="n">
-        <v>330032000000</v>
+        <v>7639749000000</v>
       </c>
       <c r="H28" t="n">
-        <v>345300000000</v>
+        <v>8073122000000</v>
       </c>
       <c r="I28" t="n">
-        <v>369660000000</v>
+        <v>8577552000000</v>
       </c>
       <c r="J28" t="n">
-        <v>394839000000</v>
+        <v>9062817000000</v>
       </c>
       <c r="K28" t="n">
-        <v>420143000000</v>
+        <v>9631172000000</v>
       </c>
       <c r="L28" t="n">
-        <v>452191000000</v>
+        <v>10250952000000</v>
       </c>
       <c r="M28" t="n">
-        <v>482941000000</v>
+        <v>10581929000000</v>
       </c>
       <c r="N28" t="n">
-        <v>502901000000</v>
+        <v>10929108000000</v>
       </c>
       <c r="O28" t="n">
-        <v>514901000000</v>
+        <v>11456450000000</v>
       </c>
       <c r="P28" t="n">
-        <v>531573000000</v>
+        <v>12217196000000</v>
       </c>
       <c r="Q28" t="n">
-        <v>553122000000</v>
+        <v>13039197000000</v>
       </c>
       <c r="R28" t="n">
-        <v>587444000000</v>
+        <v>13815583000000</v>
       </c>
       <c r="S28" t="n">
-        <v>622775000000</v>
+        <v>14474228000000</v>
       </c>
       <c r="T28" t="n">
-        <v>651299000000</v>
+        <v>14769862000000</v>
       </c>
       <c r="U28" t="n">
-        <v>630173000000</v>
+        <v>14478067000000</v>
       </c>
       <c r="V28" t="n">
-        <v>643022000000</v>
+        <v>15048971000000</v>
       </c>
       <c r="W28" t="n">
-        <v>656013000000</v>
+        <v>15599732000000</v>
       </c>
       <c r="X28" t="n">
-        <v>658232000000</v>
+        <v>16253970000000</v>
       </c>
       <c r="Y28" t="n">
-        <v>665567000000</v>
+        <v>16880683000000</v>
       </c>
       <c r="Z28" t="n">
-        <v>678627000000</v>
+        <v>17608138000000</v>
       </c>
       <c r="AA28" t="n">
-        <v>699175000000</v>
+        <v>18295019000000</v>
       </c>
       <c r="AB28" t="n">
-        <v>720175000000</v>
+        <v>18804913000000</v>
       </c>
       <c r="AC28" t="n">
-        <v>750861000000</v>
+        <v>19612102000000</v>
       </c>
       <c r="AD28" t="n">
-        <v>787273000000</v>
+        <v>20656516000000</v>
       </c>
       <c r="AE28" t="n">
-        <v>829767000000</v>
+        <v>21539982000000</v>
       </c>
       <c r="AF28" t="n">
-        <v>816463000000</v>
+        <v>21354105000000</v>
       </c>
       <c r="AG28" t="n">
-        <v>891550000000</v>
+        <v>23681171000000</v>
       </c>
       <c r="AH28" t="n">
-        <v>993820000000</v>
+        <v>26006893000000</v>
       </c>
       <c r="AI28" t="n">
-        <v>1067599000000</v>
+        <v>27720709000000</v>
       </c>
     </row>
     <row r="29">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3737,97 +3737,97 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10749500000</v>
+        <v>3567323035800</v>
       </c>
       <c r="F29" t="n">
-        <v>25960604000</v>
+        <v>4863745033400</v>
       </c>
       <c r="G29" t="n">
-        <v>31177739100</v>
+        <v>6133989133700</v>
       </c>
       <c r="H29" t="n">
-        <v>36340948300</v>
+        <v>7181362958700</v>
       </c>
       <c r="I29" t="n">
-        <v>41476833900</v>
+        <v>7971504449200</v>
       </c>
       <c r="J29" t="n">
-        <v>49050861300</v>
+        <v>8519550709000.001</v>
       </c>
       <c r="K29" t="n">
-        <v>57346028100</v>
+        <v>9056437577700</v>
       </c>
       <c r="L29" t="n">
-        <v>64812005100</v>
+        <v>10028013925300</v>
       </c>
       <c r="M29" t="n">
-        <v>71563317800</v>
+        <v>11086312304600</v>
       </c>
       <c r="N29" t="n">
-        <v>74445035500</v>
+        <v>12171742474800</v>
       </c>
       <c r="O29" t="n">
-        <v>80390359200</v>
+        <v>13742203491800</v>
       </c>
       <c r="P29" t="n">
-        <v>92323401500</v>
+        <v>16184016090700</v>
       </c>
       <c r="Q29" t="n">
-        <v>105776805200</v>
+        <v>18731890311800</v>
       </c>
       <c r="R29" t="n">
-        <v>118838000000</v>
+        <v>21943847481700</v>
       </c>
       <c r="S29" t="n">
-        <v>136951000000</v>
+        <v>27009232371800</v>
       </c>
       <c r="T29" t="n">
-        <v>164602000000</v>
+        <v>31924461277900</v>
       </c>
       <c r="U29" t="n">
-        <v>168791000000</v>
+        <v>34851774373500</v>
       </c>
       <c r="V29" t="n">
-        <v>187052000000</v>
+        <v>41211925579600</v>
       </c>
       <c r="W29" t="n">
-        <v>219182000000</v>
+        <v>48794018052500</v>
       </c>
       <c r="X29" t="n">
-        <v>247993000000</v>
+        <v>53857995346900</v>
       </c>
       <c r="Y29" t="n">
-        <v>271529000000</v>
+        <v>59296322954900</v>
       </c>
       <c r="Z29" t="n">
-        <v>308403000000</v>
+        <v>64356310454400</v>
       </c>
       <c r="AA29" t="n">
-        <v>347707000000</v>
+        <v>68885821804900.01</v>
       </c>
       <c r="AB29" t="n">
-        <v>380261000000</v>
+        <v>74639505948400</v>
       </c>
       <c r="AC29" t="n">
-        <v>414280000000</v>
+        <v>83203594856000</v>
       </c>
       <c r="AD29" t="n">
-        <v>410988000000</v>
+        <v>91928112906700</v>
       </c>
       <c r="AE29" t="n">
-        <v>420614000000</v>
+        <v>98651520229200</v>
       </c>
       <c r="AF29" t="n">
-        <v>435512000000</v>
+        <v>101356700223100</v>
       </c>
       <c r="AG29" t="n">
-        <v>497461000000</v>
+        <v>114923697861100</v>
       </c>
       <c r="AH29" t="n">
-        <v>561431000000</v>
+        <v>120472395261800</v>
       </c>
       <c r="AI29" t="n">
-        <v>649718000000</v>
+        <v>126058207462620</v>
       </c>
     </row>
     <row r="30">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3852,97 +3852,97 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>855401000000</v>
+        <v>504497800000000</v>
       </c>
       <c r="F30" t="n">
-        <v>897242000000</v>
+        <v>510916100000000</v>
       </c>
       <c r="G30" t="n">
-        <v>963138000000</v>
+        <v>521613500000000</v>
       </c>
       <c r="H30" t="n">
-        <v>1054672000000</v>
+        <v>535562100000000</v>
       </c>
       <c r="I30" t="n">
-        <v>1141340000000</v>
+        <v>543545400000000</v>
       </c>
       <c r="J30" t="n">
-        <v>1163683000000</v>
+        <v>536497400000000</v>
       </c>
       <c r="K30" t="n">
-        <v>1266463000000</v>
+        <v>528069900000000</v>
       </c>
       <c r="L30" t="n">
-        <v>1509132000000</v>
+        <v>535417700000000</v>
       </c>
       <c r="M30" t="n">
-        <v>1566708000000</v>
+        <v>531653900000000</v>
       </c>
       <c r="N30" t="n">
-        <v>1564145000000</v>
+        <v>524478700000000</v>
       </c>
       <c r="O30" t="n">
-        <v>1624095000000</v>
+        <v>523968600000000</v>
       </c>
       <c r="P30" t="n">
-        <v>1788123000000</v>
+        <v>529400900000000</v>
       </c>
       <c r="Q30" t="n">
-        <v>1997037000000</v>
+        <v>532515600000000</v>
       </c>
       <c r="R30" t="n">
-        <v>2224871000000</v>
+        <v>535170200000000</v>
       </c>
       <c r="S30" t="n">
-        <v>2360174000000</v>
+        <v>539281700000000</v>
       </c>
       <c r="T30" t="n">
-        <v>2622135000000</v>
+        <v>527823800000000</v>
       </c>
       <c r="U30" t="n">
-        <v>2439712000000</v>
+        <v>494938400000000</v>
       </c>
       <c r="V30" t="n">
-        <v>2605351000000</v>
+        <v>505530600000000</v>
       </c>
       <c r="W30" t="n">
-        <v>2809929000000</v>
+        <v>497448900000000</v>
       </c>
       <c r="X30" t="n">
-        <v>2983082000000</v>
+        <v>500474700000000</v>
       </c>
       <c r="Y30" t="n">
-        <v>3090335000000</v>
+        <v>508700600000000</v>
       </c>
       <c r="Z30" t="n">
-        <v>3161776000000</v>
+        <v>518811000000000</v>
       </c>
       <c r="AA30" t="n">
-        <v>3130183000000</v>
+        <v>538032300000000</v>
       </c>
       <c r="AB30" t="n">
-        <v>3116035000000</v>
+        <v>544364600000000</v>
       </c>
       <c r="AC30" t="n">
-        <v>3323103000000</v>
+        <v>553073000000000</v>
       </c>
       <c r="AD30" t="n">
-        <v>3576581000000</v>
+        <v>556630100000000</v>
       </c>
       <c r="AE30" t="n">
-        <v>3596937000000</v>
+        <v>557910800000000</v>
       </c>
       <c r="AF30" t="n">
-        <v>3461575000000</v>
+        <v>539808200000000</v>
       </c>
       <c r="AG30" t="n">
-        <v>4323931000000</v>
+        <v>552571400000000</v>
       </c>
       <c r="AH30" t="n">
-        <v>5708190000000</v>
+        <v>559710100000000</v>
       </c>
       <c r="AI30" t="n">
-        <v>5126500000000</v>
+        <v>590694100000000</v>
       </c>
     </row>
     <row r="31">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Korea, Rep.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3967,97 +3967,97 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1341629000000</v>
+        <v>315181300000000</v>
       </c>
       <c r="F31" t="n">
-        <v>1573097000000</v>
+        <v>372493400000000</v>
       </c>
       <c r="G31" t="n">
-        <v>1865922000000</v>
+        <v>436988800000000</v>
       </c>
       <c r="H31" t="n">
-        <v>2120173000000</v>
+        <v>490850900000000</v>
       </c>
       <c r="I31" t="n">
-        <v>2428312000000</v>
+        <v>542001800000000</v>
       </c>
       <c r="J31" t="n">
-        <v>2677656000000</v>
+        <v>537215300000000</v>
       </c>
       <c r="K31" t="n">
-        <v>2938379000000</v>
+        <v>591453000000000</v>
       </c>
       <c r="L31" t="n">
-        <v>5147094961300</v>
+        <v>651634400000000</v>
       </c>
       <c r="M31" t="n">
-        <v>5655817907900</v>
+        <v>707021300000000</v>
       </c>
       <c r="N31" t="n">
-        <v>6030116987000</v>
+        <v>784741300000000</v>
       </c>
       <c r="O31" t="n">
-        <v>6581622987800</v>
+        <v>837365000000000</v>
       </c>
       <c r="P31" t="n">
-        <v>7611677902900</v>
+        <v>908439200000000</v>
       </c>
       <c r="Q31" t="n">
-        <v>8619231796800.001</v>
+        <v>957447800000000</v>
       </c>
       <c r="R31" t="n">
-        <v>9689070773700</v>
+        <v>1005601500000000</v>
       </c>
       <c r="S31" t="n">
-        <v>11165234339600</v>
+        <v>1089660200000000</v>
       </c>
       <c r="T31" t="n">
-        <v>12647136760800</v>
+        <v>1154216500000000</v>
       </c>
       <c r="U31" t="n">
-        <v>14705697558500</v>
+        <v>1205347700000000</v>
       </c>
       <c r="V31" t="n">
-        <v>16507053350300</v>
+        <v>1322611200000000</v>
       </c>
       <c r="W31" t="n">
-        <v>19731030411400</v>
+        <v>1388937200000000</v>
       </c>
       <c r="X31" t="n">
-        <v>22344639137200</v>
+        <v>1440111400000000</v>
       </c>
       <c r="Y31" t="n">
-        <v>25042169405200</v>
+        <v>1500819100000000</v>
       </c>
       <c r="Z31" t="n">
-        <v>27952815352700</v>
+        <v>1562928900000000</v>
       </c>
       <c r="AA31" t="n">
-        <v>30425879918400</v>
+        <v>1658020400000000</v>
       </c>
       <c r="AB31" t="n">
-        <v>32725049000000</v>
+        <v>1740779600000000</v>
       </c>
       <c r="AC31" t="n">
-        <v>35552819000000</v>
+        <v>1835698200000000</v>
       </c>
       <c r="AD31" t="n">
-        <v>39189810000000</v>
+        <v>1898192600000000</v>
       </c>
       <c r="AE31" t="n">
-        <v>43798401000000</v>
+        <v>1924498100000000</v>
       </c>
       <c r="AF31" t="n">
-        <v>47540409000000</v>
+        <v>1940726200000000</v>
       </c>
       <c r="AG31" t="n">
-        <v>55836225000000</v>
+        <v>2080198500000000</v>
       </c>
       <c r="AH31" t="n">
-        <v>66657868000000</v>
+        <v>2161773900000000</v>
       </c>
       <c r="AI31" t="n">
-        <v>83955422000000</v>
+        <v>2236329400000000</v>
       </c>
     </row>
     <row r="32">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4082,97 +4082,97 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4867100000</v>
+        <v>84575000000</v>
       </c>
       <c r="F32" t="n">
-        <v>5530300000</v>
+        <v>90600000000</v>
       </c>
       <c r="G32" t="n">
-        <v>6194700000</v>
+        <v>96236000000</v>
       </c>
       <c r="H32" t="n">
-        <v>6794700000</v>
+        <v>101101000000</v>
       </c>
       <c r="I32" t="n">
-        <v>7079600000</v>
+        <v>104815000000</v>
       </c>
       <c r="J32" t="n">
-        <v>7803600000</v>
+        <v>106826000000</v>
       </c>
       <c r="K32" t="n">
-        <v>8828200000</v>
+        <v>113229000000</v>
       </c>
       <c r="L32" t="n">
-        <v>9735800000</v>
+        <v>119839000000</v>
       </c>
       <c r="M32" t="n">
-        <v>10396300000</v>
+        <v>128712000000</v>
       </c>
       <c r="N32" t="n">
-        <v>11655500000</v>
+        <v>135181000000</v>
       </c>
       <c r="O32" t="n">
-        <v>12567346700</v>
+        <v>144502000000</v>
       </c>
       <c r="P32" t="n">
-        <v>12652124500</v>
+        <v>154559000000</v>
       </c>
       <c r="Q32" t="n">
-        <v>15094000000</v>
+        <v>162937000000</v>
       </c>
       <c r="R32" t="n">
-        <v>25538749000</v>
+        <v>172004000000</v>
       </c>
       <c r="S32" t="n">
-        <v>28304313400</v>
+        <v>186673000000</v>
       </c>
       <c r="T32" t="n">
-        <v>31512437600</v>
+        <v>189406000000</v>
       </c>
       <c r="U32" t="n">
-        <v>32013264100</v>
+        <v>194307000000</v>
       </c>
       <c r="V32" t="n">
-        <v>38752078700</v>
+        <v>203342000000</v>
       </c>
       <c r="W32" t="n">
-        <v>42642222800</v>
+        <v>213030000000</v>
       </c>
       <c r="X32" t="n">
-        <v>44371635600</v>
+        <v>217494000000</v>
       </c>
       <c r="Y32" t="n">
-        <v>47721285900</v>
+        <v>232797000000</v>
       </c>
       <c r="Z32" t="n">
-        <v>57130774000</v>
+        <v>242699000000</v>
       </c>
       <c r="AA32" t="n">
-        <v>60139423700</v>
+        <v>255397000000</v>
       </c>
       <c r="AB32" t="n">
-        <v>65038163500</v>
+        <v>271357000000</v>
       </c>
       <c r="AC32" t="n">
-        <v>72521646100</v>
+        <v>290724000000</v>
       </c>
       <c r="AD32" t="n">
-        <v>79404670700</v>
+        <v>306173000000</v>
       </c>
       <c r="AE32" t="n">
-        <v>83843686236.29379</v>
+        <v>323075000000</v>
       </c>
       <c r="AF32" t="n">
-        <v>82515009500.47951</v>
+        <v>327992000000</v>
       </c>
       <c r="AG32" t="n">
-        <v>91611979103.49593</v>
+        <v>358602000000</v>
       </c>
       <c r="AH32" t="n">
-        <v>111394841598.852</v>
+        <v>389144000000</v>
       </c>
       <c r="AI32" t="n">
-        <v>110619128661.404</v>
+        <v>410651000000</v>
       </c>
     </row>
     <row r="33">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4197,97 +4197,97 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>497965000000</v>
+        <v>1257174855700</v>
       </c>
       <c r="F33" t="n">
-        <v>506230000000</v>
+        <v>1768791487400</v>
       </c>
       <c r="G33" t="n">
-        <v>536820000000</v>
+        <v>3100235093700</v>
       </c>
       <c r="H33" t="n">
-        <v>594191000000</v>
+        <v>4086065207400</v>
       </c>
       <c r="I33" t="n">
-        <v>621534000000</v>
+        <v>4418708747600</v>
       </c>
       <c r="J33" t="n">
-        <v>550408000000</v>
+        <v>4805156414800</v>
       </c>
       <c r="K33" t="n">
-        <v>606439000000</v>
+        <v>5482354321300</v>
       </c>
       <c r="L33" t="n">
-        <v>710681000000</v>
+        <v>7062751068400</v>
       </c>
       <c r="M33" t="n">
-        <v>690516000000</v>
+        <v>8234493679700</v>
       </c>
       <c r="N33" t="n">
-        <v>711022000000</v>
+        <v>11501450399000</v>
       </c>
       <c r="O33" t="n">
-        <v>809279000000</v>
+        <v>13556973688000</v>
       </c>
       <c r="P33" t="n">
-        <v>970283000000</v>
+        <v>18124060020000</v>
       </c>
       <c r="Q33" t="n">
-        <v>1230771000000</v>
+        <v>23121878997000</v>
       </c>
       <c r="R33" t="n">
-        <v>1411491000000</v>
+        <v>30375178717000</v>
       </c>
       <c r="S33" t="n">
-        <v>1558827000000</v>
+        <v>34675943737000</v>
       </c>
       <c r="T33" t="n">
-        <v>1949238000000</v>
+        <v>39954211886000</v>
       </c>
       <c r="U33" t="n">
-        <v>1609117000000</v>
+        <v>43461458621000</v>
       </c>
       <c r="V33" t="n">
-        <v>1980777000000</v>
+        <v>54612264177000</v>
       </c>
       <c r="W33" t="n">
-        <v>2537380000000</v>
+        <v>63134734885000</v>
       </c>
       <c r="X33" t="n">
-        <v>2781937000000</v>
+        <v>72351452212000</v>
       </c>
       <c r="Y33" t="n">
-        <v>2826992000000</v>
+        <v>81009964620000</v>
       </c>
       <c r="Z33" t="n">
-        <v>2874772000000</v>
+        <v>90136984656000</v>
       </c>
       <c r="AA33" t="n">
-        <v>2510566000000</v>
+        <v>95177735684000</v>
       </c>
       <c r="AB33" t="n">
-        <v>2497500000000</v>
+        <v>102575418030000</v>
       </c>
       <c r="AC33" t="n">
-        <v>2681230000000</v>
+        <v>114899249900000</v>
       </c>
       <c r="AD33" t="n">
-        <v>3174689000000</v>
+        <v>129086907450000</v>
       </c>
       <c r="AE33" t="n">
-        <v>3144618000000</v>
+        <v>145639139380000</v>
       </c>
       <c r="AF33" t="n">
-        <v>2753517000000</v>
+        <v>154252318900000</v>
       </c>
       <c r="AG33" t="n">
-        <v>3278085000000</v>
+        <v>176075501870000</v>
       </c>
       <c r="AH33" t="n">
-        <v>4157143000000</v>
+        <v>202365026790000</v>
       </c>
       <c r="AI33" t="n">
-        <v>4003436000000</v>
+        <v>234425913902900</v>
       </c>
     </row>
     <row r="34">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4312,97 +4312,97 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>97923100000</v>
+        <v>333611292400</v>
       </c>
       <c r="F34" t="n">
-        <v>112555400000</v>
+        <v>400657837200</v>
       </c>
       <c r="G34" t="n">
-        <v>124463300000</v>
+        <v>465250740000</v>
       </c>
       <c r="H34" t="n">
-        <v>135777200000</v>
+        <v>687998000000</v>
       </c>
       <c r="I34" t="n">
-        <v>148664400000</v>
+        <v>770313000000</v>
       </c>
       <c r="J34" t="n">
-        <v>143474900000</v>
+        <v>850808200000</v>
       </c>
       <c r="K34" t="n">
-        <v>146252500000</v>
+        <v>906927630000</v>
       </c>
       <c r="L34" t="n">
-        <v>165632400000</v>
+        <v>967836930000</v>
       </c>
       <c r="M34" t="n">
-        <v>160885600000</v>
+        <v>1020221000000</v>
       </c>
       <c r="N34" t="n">
-        <v>165698100000</v>
+        <v>1035373000000</v>
       </c>
       <c r="O34" t="n">
-        <v>170117900000</v>
+        <v>1131782000000</v>
       </c>
       <c r="P34" t="n">
-        <v>194433000000</v>
+        <v>1274329000000</v>
       </c>
       <c r="Q34" t="n">
-        <v>212723000000</v>
+        <v>1415725000000</v>
       </c>
       <c r="R34" t="n">
-        <v>236158800000</v>
+        <v>1862041000000</v>
       </c>
       <c r="S34" t="n">
-        <v>272697600000</v>
+        <v>2151349000000</v>
       </c>
       <c r="T34" t="n">
-        <v>273941600000</v>
+        <v>2483058000000</v>
       </c>
       <c r="U34" t="n">
-        <v>282394500000</v>
+        <v>3275642000000</v>
       </c>
       <c r="V34" t="n">
-        <v>326980100000</v>
+        <v>3597630000000</v>
       </c>
       <c r="W34" t="n">
-        <v>351367900000</v>
+        <v>4162514000000</v>
       </c>
       <c r="X34" t="n">
-        <v>368770500000</v>
+        <v>4767191000000</v>
       </c>
       <c r="Y34" t="n">
-        <v>384870300000</v>
+        <v>5311322000000</v>
       </c>
       <c r="Z34" t="n">
-        <v>398947900000</v>
+        <v>6003835000000</v>
       </c>
       <c r="AA34" t="n">
-        <v>423444100000</v>
+        <v>6884317000000</v>
       </c>
       <c r="AB34" t="n">
-        <v>440787700000</v>
+        <v>7594064000000</v>
       </c>
       <c r="AC34" t="n">
-        <v>474012400000</v>
+        <v>8483396000000</v>
       </c>
       <c r="AD34" t="n">
-        <v>508368700000</v>
+        <v>9340307000000</v>
       </c>
       <c r="AE34" t="n">
-        <v>514153400000</v>
+        <v>10237727000000</v>
       </c>
       <c r="AF34" t="n">
-        <v>482203800000</v>
+        <v>10715070000000</v>
       </c>
       <c r="AG34" t="n">
-        <v>583221500000</v>
+        <v>12027662000000</v>
       </c>
       <c r="AH34" t="n">
-        <v>687230400000</v>
+        <v>13489642000000</v>
       </c>
       <c r="AI34" t="n">
-        <v>673300300000</v>
+        <v>15108806000000</v>
       </c>
     </row>
     <row r="35">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4427,97 +4427,97 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5019529606800</v>
+        <v>2505757658900</v>
       </c>
       <c r="F35" t="n">
-        <v>6425324372900</v>
+        <v>3338327100700</v>
       </c>
       <c r="G35" t="n">
-        <v>8786478870300.001</v>
+        <v>4386255058600</v>
       </c>
       <c r="H35" t="n">
-        <v>12335052551800</v>
+        <v>5471226214700</v>
       </c>
       <c r="I35" t="n">
-        <v>16675557077600</v>
+        <v>6830184019700</v>
       </c>
       <c r="J35" t="n">
-        <v>21676264076400</v>
+        <v>8090903071500</v>
       </c>
       <c r="K35" t="n">
-        <v>26609546637900</v>
+        <v>9463537207700</v>
       </c>
       <c r="L35" t="n">
-        <v>32665590794600</v>
+        <v>10702564363100</v>
       </c>
       <c r="M35" t="n">
-        <v>37872430992300</v>
+        <v>11899019633400</v>
       </c>
       <c r="N35" t="n">
-        <v>43909230689200</v>
+        <v>13664748311300</v>
       </c>
       <c r="O35" t="n">
-        <v>50227277761500</v>
+        <v>15803723268000</v>
       </c>
       <c r="P35" t="n">
-        <v>57454541882600</v>
+        <v>18159445568400</v>
       </c>
       <c r="Q35" t="n">
-        <v>71425362483100</v>
+        <v>20771312305000</v>
       </c>
       <c r="R35" t="n">
-        <v>70834771852500</v>
+        <v>23347422032000</v>
       </c>
       <c r="S35" t="n">
-        <v>78234861978400</v>
+        <v>27195969081000</v>
       </c>
       <c r="T35" t="n">
-        <v>85191613939600</v>
+        <v>33450674683000</v>
       </c>
       <c r="U35" t="n">
-        <v>93054416773700</v>
+        <v>38397086967000</v>
       </c>
       <c r="V35" t="n">
-        <v>84046818062900</v>
+        <v>44679884234000</v>
       </c>
       <c r="W35" t="n">
-        <v>87083626693400</v>
+        <v>53976186599000</v>
       </c>
       <c r="X35" t="n">
-        <v>98274914618900</v>
+        <v>62318659036800</v>
       </c>
       <c r="Y35" t="n">
-        <v>97631596198100</v>
+        <v>72977199824200</v>
       </c>
       <c r="Z35" t="n">
-        <v>115890992183700</v>
+        <v>82603387740700</v>
       </c>
       <c r="AA35" t="n">
-        <v>136911479044000</v>
+        <v>94349315691600</v>
       </c>
       <c r="AB35" t="n">
-        <v>152524721186800</v>
+        <v>108362324289500</v>
       </c>
       <c r="AC35" t="n">
-        <v>176046476919700</v>
+        <v>118742132825000</v>
       </c>
       <c r="AD35" t="n">
-        <v>188601853704700</v>
+        <v>129043901311200</v>
       </c>
       <c r="AE35" t="n">
-        <v>216927356777500</v>
+        <v>139641854498000</v>
       </c>
       <c r="AF35" t="n">
-        <v>222276050620900</v>
+        <v>151571350271500</v>
       </c>
       <c r="AG35" t="n">
-        <v>246953899455700</v>
+        <v>162349974723800</v>
       </c>
       <c r="AH35" t="n">
-        <v>273765953673900</v>
+        <v>174452778541000</v>
       </c>
       <c r="AI35" t="n">
-        <v>298354633365100</v>
+        <v>188334085000000</v>
       </c>
     </row>
     <row r="36">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4542,97 +4542,97 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1655117000000</v>
+        <v>3870387408000</v>
       </c>
       <c r="F36" t="n">
-        <v>1764662000000</v>
+        <v>4400270000000</v>
       </c>
       <c r="G36" t="n">
-        <v>1904968000000</v>
+        <v>5367456000000</v>
       </c>
       <c r="H36" t="n">
-        <v>1957833000000</v>
+        <v>6122089000000</v>
       </c>
       <c r="I36" t="n">
-        <v>2048077000000</v>
+        <v>6633475000000</v>
       </c>
       <c r="J36" t="n">
-        <v>2153545000000</v>
+        <v>7570250000000</v>
       </c>
       <c r="K36" t="n">
-        <v>2266545000000</v>
+        <v>8170700000000</v>
       </c>
       <c r="L36" t="n">
-        <v>2408790000000</v>
+        <v>9364317417900</v>
       </c>
       <c r="M36" t="n">
-        <v>2504799000000</v>
+        <v>10296365610000</v>
       </c>
       <c r="N36" t="n">
-        <v>2603441000000</v>
+        <v>10840666713000</v>
       </c>
       <c r="O36" t="n">
-        <v>2701423000000</v>
+        <v>12443497237000</v>
       </c>
       <c r="P36" t="n">
-        <v>2825999000000</v>
+        <v>15362227054000</v>
       </c>
       <c r="Q36" t="n">
-        <v>2927141000000</v>
+        <v>16050626596000</v>
       </c>
       <c r="R36" t="n">
-        <v>3117514000000</v>
+        <v>18209404509000</v>
       </c>
       <c r="S36" t="n">
-        <v>3312151000000</v>
+        <v>21186563444000</v>
       </c>
       <c r="T36" t="n">
-        <v>3391889000000</v>
+        <v>24497446507000</v>
       </c>
       <c r="U36" t="n">
-        <v>3324151000000</v>
+        <v>48495172152000</v>
       </c>
       <c r="V36" t="n">
-        <v>3551531000000</v>
+        <v>54117241671000</v>
       </c>
       <c r="W36" t="n">
-        <v>3704835000000</v>
+        <v>64759582821000</v>
       </c>
       <c r="X36" t="n">
-        <v>3724512000000</v>
+        <v>69825188690000</v>
       </c>
       <c r="Y36" t="n">
-        <v>3804994000000</v>
+        <v>74924152556000</v>
       </c>
       <c r="Z36" t="n">
-        <v>3963683000000</v>
+        <v>82771227577000</v>
       </c>
       <c r="AA36" t="n">
-        <v>4231745000000</v>
+        <v>91582107734000</v>
       </c>
       <c r="AB36" t="n">
-        <v>4402732000000</v>
+        <v>100548527460000</v>
       </c>
       <c r="AC36" t="n">
-        <v>4582907000000</v>
+        <v>108518040920000</v>
       </c>
       <c r="AD36" t="n">
-        <v>4792294000000</v>
+        <v>120484777460000</v>
       </c>
       <c r="AE36" t="n">
-        <v>5033443000000</v>
+        <v>132089774790000</v>
       </c>
       <c r="AF36" t="n">
-        <v>5020978000000</v>
+        <v>139689045108200</v>
       </c>
       <c r="AG36" t="n">
-        <v>5464876000000</v>
+        <v>148310247630400</v>
       </c>
       <c r="AH36" t="n">
-        <v>5865211000000</v>
+        <v>162749947272900</v>
       </c>
       <c r="AI36" t="n">
-        <v>6206525000000</v>
+        <v>183004386312800</v>
       </c>
     </row>
     <row r="37">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Yemen, Rep.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4657,97 +4657,97 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>402258170000</v>
+        <v>261059000000</v>
       </c>
       <c r="F37" t="n">
-        <v>412190663000</v>
+        <v>336514000000</v>
       </c>
       <c r="G37" t="n">
-        <v>417228341000</v>
+        <v>518252000000</v>
       </c>
       <c r="H37" t="n">
-        <v>420368494000</v>
+        <v>741667000000</v>
       </c>
       <c r="I37" t="n">
-        <v>427826113000</v>
+        <v>884192000000</v>
       </c>
       <c r="J37" t="n">
-        <v>439954879000</v>
+        <v>859104000000</v>
       </c>
       <c r="K37" t="n">
-        <v>447465787000</v>
+        <v>1189857000000</v>
       </c>
       <c r="L37" t="n">
-        <v>471540038000</v>
+        <v>1558370000000</v>
       </c>
       <c r="M37" t="n">
-        <v>483636918000</v>
+        <v>1662101000000</v>
       </c>
       <c r="N37" t="n">
-        <v>482077197000</v>
+        <v>1878007000000</v>
       </c>
       <c r="O37" t="n">
-        <v>487606519000</v>
+        <v>2160608000000</v>
       </c>
       <c r="P37" t="n">
-        <v>502265680000</v>
+        <v>2563490000000</v>
       </c>
       <c r="Q37" t="n">
-        <v>520848315000</v>
+        <v>3208501000000</v>
       </c>
       <c r="R37" t="n">
-        <v>553721552000</v>
+        <v>3760038227200</v>
       </c>
       <c r="S37" t="n">
-        <v>589085155000</v>
+        <v>4308635620000</v>
       </c>
       <c r="T37" t="n">
-        <v>614407719000</v>
+        <v>5375824693600</v>
       </c>
       <c r="U37" t="n">
-        <v>603039074000</v>
+        <v>5097593176200</v>
       </c>
       <c r="V37" t="n">
-        <v>624545119000</v>
+        <v>6786813130000</v>
       </c>
       <c r="W37" t="n">
-        <v>635738744000</v>
+        <v>6996908142400</v>
       </c>
       <c r="X37" t="n">
-        <v>643645589000</v>
+        <v>7586549615600</v>
       </c>
       <c r="Y37" t="n">
-        <v>654611669000</v>
+        <v>8684829513100</v>
       </c>
       <c r="Z37" t="n">
-        <v>665618374000</v>
+        <v>9289390699700</v>
       </c>
       <c r="AA37" t="n">
-        <v>668006382000</v>
+        <v>9797602983900</v>
       </c>
       <c r="AB37" t="n">
-        <v>677848331000</v>
+        <v>8891000000000</v>
       </c>
       <c r="AC37" t="n">
-        <v>684558467000</v>
+        <v>10006000000000</v>
       </c>
       <c r="AD37" t="n">
-        <v>709521556000</v>
+        <v>11578730912300</v>
       </c>
       <c r="AE37" t="n">
-        <v>716878590000</v>
+        <v>10677793279104</v>
       </c>
       <c r="AF37" t="n">
-        <v>696619959000</v>
+        <v>11138308910427.38</v>
       </c>
       <c r="AG37" t="n">
-        <v>743330231000</v>
+        <v>11598824541750.62</v>
       </c>
       <c r="AH37" t="n">
-        <v>781460269000</v>
+        <v>12059340173074</v>
       </c>
       <c r="AI37" t="n">
-        <v>795110102000</v>
+        <v>12519855804397.38</v>
       </c>
     </row>
     <row r="38">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4772,97 +4772,97 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>7070600</v>
+        <v>13267298900</v>
       </c>
       <c r="F38" t="n">
-        <v>20200000</v>
+        <v>15025435100</v>
       </c>
       <c r="G38" t="n">
-        <v>69800000</v>
+        <v>31082569000</v>
       </c>
       <c r="H38" t="n">
-        <v>308400000</v>
+        <v>50817585200</v>
       </c>
       <c r="I38" t="n">
-        <v>518200000</v>
+        <v>63734101000</v>
       </c>
       <c r="J38" t="n">
-        <v>1025300000</v>
+        <v>79161065200</v>
       </c>
       <c r="K38" t="n">
-        <v>1345000000</v>
+        <v>113944873800</v>
       </c>
       <c r="L38" t="n">
-        <v>1786700000</v>
+        <v>151080955400</v>
       </c>
       <c r="M38" t="n">
-        <v>2563800000</v>
+        <v>180349563400</v>
       </c>
       <c r="N38" t="n">
-        <v>3375300000</v>
+        <v>390113132800</v>
       </c>
       <c r="O38" t="n">
-        <v>4761400000</v>
+        <v>455035943900</v>
       </c>
       <c r="P38" t="n">
-        <v>6167300000</v>
+        <v>550920593200</v>
       </c>
       <c r="Q38" t="n">
-        <v>7206600000</v>
+        <v>630038654600</v>
       </c>
       <c r="R38" t="n">
-        <v>9335200000</v>
+        <v>791364591300</v>
       </c>
       <c r="S38" t="n">
-        <v>12804400000</v>
+        <v>902893964000</v>
       </c>
       <c r="T38" t="n">
-        <v>17707000000</v>
+        <v>1088154018100</v>
       </c>
       <c r="U38" t="n">
-        <v>20628500000</v>
+        <v>1271897950800</v>
       </c>
       <c r="V38" t="n">
-        <v>24707100000</v>
+        <v>1524177906400</v>
       </c>
       <c r="W38" t="n">
-        <v>30071100000</v>
+        <v>1823114919200</v>
       </c>
       <c r="X38" t="n">
-        <v>36163100000</v>
+        <v>2185457550900</v>
       </c>
       <c r="Y38" t="n">
-        <v>40250200000</v>
+        <v>2926763440900</v>
       </c>
       <c r="Z38" t="n">
-        <v>44994100000</v>
+        <v>3739646523700</v>
       </c>
       <c r="AA38" t="n">
-        <v>50977800000</v>
+        <v>4606103177100</v>
       </c>
       <c r="AB38" t="n">
-        <v>54790300000</v>
+        <v>5679325217400</v>
       </c>
       <c r="AC38" t="n">
-        <v>64434300000</v>
+        <v>6531224085000</v>
       </c>
       <c r="AD38" t="n">
-        <v>71059200000</v>
+        <v>7234882369500</v>
       </c>
       <c r="AE38" t="n">
-        <v>79109800000</v>
+        <v>8239605654000</v>
       </c>
       <c r="AF38" t="n">
-        <v>83958300000</v>
+        <v>8821424127100</v>
       </c>
       <c r="AG38" t="n">
-        <v>101076300000</v>
+        <v>9975521930200</v>
       </c>
       <c r="AH38" t="n">
-        <v>118181700000</v>
+        <v>11795662816400</v>
       </c>
       <c r="AI38" t="n">
-        <v>130791500000</v>
+        <v>14760005789200</v>
       </c>
     </row>
     <row r="39">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4887,97 +4887,97 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>707734000000</v>
+        <v>6563813300</v>
       </c>
       <c r="F39" t="n">
-        <v>745196000000</v>
+        <v>6890675000</v>
       </c>
       <c r="G39" t="n">
-        <v>851845000000</v>
+        <v>7111270700</v>
       </c>
       <c r="H39" t="n">
-        <v>909993000000</v>
+        <v>8553146600</v>
       </c>
       <c r="I39" t="n">
-        <v>953405000000</v>
+        <v>8529571599.999999</v>
       </c>
       <c r="J39" t="n">
-        <v>998501000000</v>
+        <v>6401968200</v>
       </c>
       <c r="K39" t="n">
-        <v>1043248000000</v>
+        <v>6858013100</v>
       </c>
       <c r="L39" t="n">
-        <v>1100752000000</v>
+        <v>6689957600</v>
       </c>
       <c r="M39" t="n">
-        <v>1146135000000</v>
+        <v>6777384700</v>
       </c>
       <c r="N39" t="n">
-        <v>1191439000000</v>
+        <v>6342116400</v>
       </c>
       <c r="O39" t="n">
-        <v>1258334000000</v>
+        <v>5727591800</v>
       </c>
       <c r="P39" t="n">
-        <v>1322637000000</v>
+        <v>5805598400</v>
       </c>
       <c r="Q39" t="n">
-        <v>1398749000000</v>
+        <v>5755215200</v>
       </c>
       <c r="R39" t="n">
-        <v>1472038000000</v>
+        <v>5443896500</v>
       </c>
       <c r="S39" t="n">
-        <v>1544637000000</v>
+        <v>5291950100</v>
       </c>
       <c r="T39" t="n">
-        <v>1593600000000</v>
+        <v>4415702800</v>
       </c>
       <c r="U39" t="n">
-        <v>1548802000000</v>
+        <v>9665793300</v>
       </c>
       <c r="V39" t="n">
-        <v>1608553000000</v>
+        <v>12041655200</v>
       </c>
       <c r="W39" t="n">
-        <v>1662590000000</v>
+        <v>14101920300</v>
       </c>
       <c r="X39" t="n">
-        <v>1713715000000</v>
+        <v>17114849900</v>
       </c>
       <c r="Y39" t="n">
-        <v>1781361000000</v>
+        <v>19091020000</v>
       </c>
       <c r="Z39" t="n">
-        <v>1862514000000</v>
+        <v>19495519600</v>
       </c>
       <c r="AA39" t="n">
-        <v>1916451000000</v>
+        <v>19963120600</v>
       </c>
       <c r="AB39" t="n">
-        <v>1991645000000</v>
+        <v>20548678100</v>
       </c>
       <c r="AC39" t="n">
-        <v>2082482000000</v>
+        <v>64016979487.4598</v>
       </c>
       <c r="AD39" t="n">
-        <v>2152304000000</v>
+        <v>69613486100</v>
       </c>
       <c r="AE39" t="n">
-        <v>2233921000000</v>
+        <v>212174391900</v>
       </c>
       <c r="AF39" t="n">
-        <v>2103486000000</v>
+        <v>1378795328500</v>
       </c>
       <c r="AG39" t="n">
-        <v>2285400000000</v>
+        <v>3189937242100</v>
       </c>
       <c r="AH39" t="n">
-        <v>2526428000000</v>
+        <v>12425362491400</v>
       </c>
       <c r="AI39" t="n">
-        <v>2720029000000</v>
+        <v>133703393440500</v>
       </c>
     </row>
     <row r="40">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5002,97 +5002,97 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>204200000000</v>
+        <v>414337973300</v>
       </c>
       <c r="F40" t="n">
-        <v>217709000000</v>
+        <v>655051577700</v>
       </c>
       <c r="G40" t="n">
-        <v>241345000000</v>
+        <v>721728639500</v>
       </c>
       <c r="H40" t="n">
-        <v>270080000000</v>
+        <v>822241422600</v>
       </c>
       <c r="I40" t="n">
-        <v>289418000000</v>
+        <v>901587995300</v>
       </c>
       <c r="J40" t="n">
-        <v>277914000000</v>
+        <v>1029344630700</v>
       </c>
       <c r="K40" t="n">
-        <v>310126000000</v>
+        <v>944897144000</v>
       </c>
       <c r="L40" t="n">
-        <v>383179000000</v>
+        <v>986128585300</v>
       </c>
       <c r="M40" t="n">
-        <v>379412000000</v>
+        <v>1253017742400</v>
       </c>
       <c r="N40" t="n">
-        <v>403300000000</v>
+        <v>1385349274600</v>
       </c>
       <c r="O40" t="n">
-        <v>456662000000</v>
+        <v>1590551400000</v>
       </c>
       <c r="P40" t="n">
-        <v>542885000000</v>
+        <v>2332340000000</v>
       </c>
       <c r="Q40" t="n">
-        <v>663317651100</v>
+        <v>3505903000000</v>
       </c>
       <c r="R40" t="n">
-        <v>815723000000</v>
+        <v>3880944000000</v>
       </c>
       <c r="S40" t="n">
-        <v>947197000000</v>
+        <v>4140247589300</v>
       </c>
       <c r="T40" t="n">
-        <v>1158580526300</v>
+        <v>4635650285500</v>
       </c>
       <c r="U40" t="n">
-        <v>931152675000</v>
+        <v>4369368423300</v>
       </c>
       <c r="V40" t="n">
-        <v>1102444296018.82</v>
+        <v>5278516425000</v>
       </c>
       <c r="W40" t="n">
-        <v>1325158236028.17</v>
+        <v>5736183821300</v>
       </c>
       <c r="X40" t="n">
-        <v>1412480685472.86</v>
+        <v>6314235440000</v>
       </c>
       <c r="Y40" t="n">
-        <v>1469802550498.05</v>
+        <v>6397746000000</v>
       </c>
       <c r="Z40" t="n">
-        <v>1520801959422.1</v>
+        <v>6883356000000</v>
       </c>
       <c r="AA40" t="n">
-        <v>1359836661959.71</v>
+        <v>6474000000000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1356090185600.87</v>
+        <v>5984000000000</v>
       </c>
       <c r="AC40" t="n">
-        <v>1434172962750.6</v>
+        <v>5806796500000</v>
       </c>
       <c r="AD40" t="n">
-        <v>1568339039568.47</v>
+        <v>6242756000000</v>
       </c>
       <c r="AE40" t="n">
-        <v>1535067253069.93</v>
+        <v>6629554456200</v>
       </c>
       <c r="AF40" t="n">
-        <v>1283439648824.91</v>
+        <v>6167632000000</v>
       </c>
       <c r="AG40" t="n">
-        <v>1524744116447.4</v>
+        <v>6532361000000</v>
       </c>
       <c r="AH40" t="n">
-        <v>1846283032012.77</v>
+        <v>7732628994700</v>
       </c>
       <c r="AI40" t="n">
-        <v>1888144013918.44</v>
+        <v>7975982997700</v>
       </c>
     </row>
     <row r="41">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5117,1591 +5117,96 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6858559000000</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7287236000000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7639749000000</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8073122000000</v>
+        <v>747645824.6660156</v>
       </c>
       <c r="I41" t="n">
-        <v>8577552000000</v>
+        <v>3207129816.333008</v>
       </c>
       <c r="J41" t="n">
-        <v>9062817000000</v>
+        <v>5666613808</v>
       </c>
       <c r="K41" t="n">
-        <v>9631172000000</v>
+        <v>8126097799.666016</v>
       </c>
       <c r="L41" t="n">
-        <v>10250952000000</v>
+        <v>10585581791.33301</v>
       </c>
       <c r="M41" t="n">
-        <v>10581929000000</v>
+        <v>13045065783</v>
       </c>
       <c r="N41" t="n">
-        <v>10929108000000</v>
+        <v>15504549774.66602</v>
       </c>
       <c r="O41" t="n">
-        <v>11456450000000</v>
+        <v>17964033766.33301</v>
       </c>
       <c r="P41" t="n">
-        <v>12217196000000</v>
+        <v>20423517758</v>
       </c>
       <c r="Q41" t="n">
-        <v>13039197000000</v>
+        <v>22883001749.66602</v>
       </c>
       <c r="R41" t="n">
-        <v>13815583000000</v>
+        <v>25342485741.33301</v>
       </c>
       <c r="S41" t="n">
-        <v>14474228000000</v>
+        <v>27801969733</v>
       </c>
       <c r="T41" t="n">
-        <v>14769862000000</v>
+        <v>30504231700</v>
       </c>
       <c r="U41" t="n">
-        <v>14478067000000</v>
+        <v>28251774800</v>
       </c>
       <c r="V41" t="n">
-        <v>15048971000000</v>
+        <v>33656316700</v>
       </c>
       <c r="W41" t="n">
-        <v>15599732000000</v>
+        <v>44557946400</v>
       </c>
       <c r="X41" t="n">
-        <v>16253970000000</v>
+        <v>35197842900</v>
       </c>
       <c r="Y41" t="n">
-        <v>16880683000000</v>
+        <v>54358083600</v>
       </c>
       <c r="Z41" t="n">
-        <v>17608138000000</v>
+        <v>41188527900</v>
       </c>
       <c r="AA41" t="n">
-        <v>18295019000000</v>
+        <v>43242473500</v>
       </c>
       <c r="AB41" t="n">
-        <v>18804913000000</v>
+        <v>49937325658</v>
       </c>
       <c r="AC41" t="n">
-        <v>19612102000000</v>
+        <v>52396809649.66602</v>
       </c>
       <c r="AD41" t="n">
-        <v>20656516000000</v>
+        <v>54856293641.33301</v>
       </c>
       <c r="AE41" t="n">
-        <v>21539982000000</v>
+        <v>57315777633</v>
       </c>
       <c r="AF41" t="n">
-        <v>21354105000000</v>
+        <v>59775261624.66602</v>
       </c>
       <c r="AG41" t="n">
-        <v>23681171000000</v>
+        <v>62234745616.33301</v>
       </c>
       <c r="AH41" t="n">
-        <v>26006893000000</v>
+        <v>64694229608</v>
       </c>
       <c r="AI41" t="n">
-        <v>27720709000000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1854105027945</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>3567323035800</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4863745033400</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6133989133700</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7181362958700</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7971504449200</v>
-      </c>
-      <c r="J42" t="n">
-        <v>8519550709000.001</v>
-      </c>
-      <c r="K42" t="n">
-        <v>9056437577700</v>
-      </c>
-      <c r="L42" t="n">
-        <v>10028013925300</v>
-      </c>
-      <c r="M42" t="n">
-        <v>11086312304600</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12171742474800</v>
-      </c>
-      <c r="O42" t="n">
-        <v>13742203491800</v>
-      </c>
-      <c r="P42" t="n">
-        <v>16184016090700</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>18731890311800</v>
-      </c>
-      <c r="R42" t="n">
-        <v>21943847481700</v>
-      </c>
-      <c r="S42" t="n">
-        <v>27009232371800</v>
-      </c>
-      <c r="T42" t="n">
-        <v>31924461277900</v>
-      </c>
-      <c r="U42" t="n">
-        <v>34851774373500</v>
-      </c>
-      <c r="V42" t="n">
-        <v>41211925579600</v>
-      </c>
-      <c r="W42" t="n">
-        <v>48794018052500</v>
-      </c>
-      <c r="X42" t="n">
-        <v>53857995346900</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>59296322954900</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>64356310454400</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>68885821804900.01</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>74639505948400</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>83203594856000</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>91928112906700</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>98651520229200</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>101356700223100</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>114923697861100</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>120472395261800</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>126058207462620</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1854205028639</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>504497800000000</v>
-      </c>
-      <c r="F43" t="n">
-        <v>510916100000000</v>
-      </c>
-      <c r="G43" t="n">
-        <v>521613500000000</v>
-      </c>
-      <c r="H43" t="n">
-        <v>535562100000000</v>
-      </c>
-      <c r="I43" t="n">
-        <v>543545400000000</v>
-      </c>
-      <c r="J43" t="n">
-        <v>536497400000000</v>
-      </c>
-      <c r="K43" t="n">
-        <v>528069900000000</v>
-      </c>
-      <c r="L43" t="n">
-        <v>535417700000000</v>
-      </c>
-      <c r="M43" t="n">
-        <v>531653900000000</v>
-      </c>
-      <c r="N43" t="n">
-        <v>524478700000000</v>
-      </c>
-      <c r="O43" t="n">
-        <v>523968600000000</v>
-      </c>
-      <c r="P43" t="n">
-        <v>529400900000000</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>532515600000000</v>
-      </c>
-      <c r="R43" t="n">
-        <v>535170200000000</v>
-      </c>
-      <c r="S43" t="n">
-        <v>539281700000000</v>
-      </c>
-      <c r="T43" t="n">
-        <v>527823800000000</v>
-      </c>
-      <c r="U43" t="n">
-        <v>494938400000000</v>
-      </c>
-      <c r="V43" t="n">
-        <v>505530600000000</v>
-      </c>
-      <c r="W43" t="n">
-        <v>497448900000000</v>
-      </c>
-      <c r="X43" t="n">
-        <v>500474700000000</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>508700600000000</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>518811000000000</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>538032300000000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>544364600000000</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>553073000000000</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>556630100000000</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>557910800000000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>539808200000000</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>552571400000000</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>559710100000000</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>590694100000000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>1854305029333</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Korea, Rep.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>315181300000000</v>
-      </c>
-      <c r="F44" t="n">
-        <v>372493400000000</v>
-      </c>
-      <c r="G44" t="n">
-        <v>436988800000000</v>
-      </c>
-      <c r="H44" t="n">
-        <v>490850900000000</v>
-      </c>
-      <c r="I44" t="n">
-        <v>542001800000000</v>
-      </c>
-      <c r="J44" t="n">
-        <v>537215300000000</v>
-      </c>
-      <c r="K44" t="n">
-        <v>591453000000000</v>
-      </c>
-      <c r="L44" t="n">
-        <v>651634400000000</v>
-      </c>
-      <c r="M44" t="n">
-        <v>707021300000000</v>
-      </c>
-      <c r="N44" t="n">
-        <v>784741300000000</v>
-      </c>
-      <c r="O44" t="n">
-        <v>837365000000000</v>
-      </c>
-      <c r="P44" t="n">
-        <v>908439200000000</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>957447800000000</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1005601500000000</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1089660200000000</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1154216500000000</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1205347700000000</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1322611200000000</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1388937200000000</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1440111400000000</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1500819100000000</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1562928900000000</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1658020400000000</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1740779600000000</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>1835698200000000</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1898192600000000</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1924498100000000</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>1940726200000000</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>2080198500000000</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>2161773900000000</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>2236329400000000</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>1854405030027</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>84575000000</v>
-      </c>
-      <c r="F45" t="n">
-        <v>90600000000</v>
-      </c>
-      <c r="G45" t="n">
-        <v>96236000000</v>
-      </c>
-      <c r="H45" t="n">
-        <v>101101000000</v>
-      </c>
-      <c r="I45" t="n">
-        <v>104815000000</v>
-      </c>
-      <c r="J45" t="n">
-        <v>106826000000</v>
-      </c>
-      <c r="K45" t="n">
-        <v>113229000000</v>
-      </c>
-      <c r="L45" t="n">
-        <v>119839000000</v>
-      </c>
-      <c r="M45" t="n">
-        <v>128712000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>135181000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>144502000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>154559000000</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>162937000000</v>
-      </c>
-      <c r="R45" t="n">
-        <v>172004000000</v>
-      </c>
-      <c r="S45" t="n">
-        <v>186673000000</v>
-      </c>
-      <c r="T45" t="n">
-        <v>189406000000</v>
-      </c>
-      <c r="U45" t="n">
-        <v>194307000000</v>
-      </c>
-      <c r="V45" t="n">
-        <v>203342000000</v>
-      </c>
-      <c r="W45" t="n">
-        <v>213030000000</v>
-      </c>
-      <c r="X45" t="n">
-        <v>217494000000</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>232797000000</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>242699000000</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>255397000000</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>271357000000</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>290724000000</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>306173000000</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>323075000000</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>327992000000</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>358602000000</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>389144000000</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>410651000000</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1854505030721</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>1257174855700</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1768791487400</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3100235093700</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4086065207400</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4418708747600</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4805156414800</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5482354321300</v>
-      </c>
-      <c r="L46" t="n">
-        <v>7062751068400</v>
-      </c>
-      <c r="M46" t="n">
-        <v>8234493679700</v>
-      </c>
-      <c r="N46" t="n">
-        <v>11501450399000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>13556973688000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>18124060020000</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>23121878997000</v>
-      </c>
-      <c r="R46" t="n">
-        <v>30375178717000</v>
-      </c>
-      <c r="S46" t="n">
-        <v>34675943737000</v>
-      </c>
-      <c r="T46" t="n">
-        <v>39954211886000</v>
-      </c>
-      <c r="U46" t="n">
-        <v>43461458621000</v>
-      </c>
-      <c r="V46" t="n">
-        <v>54612264177000</v>
-      </c>
-      <c r="W46" t="n">
-        <v>63134734885000</v>
-      </c>
-      <c r="X46" t="n">
-        <v>72351452212000</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>81009964620000</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>90136984656000</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>95177735684000</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>102575418030000</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>114899249900000</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>129086907450000</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>145639139380000</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>154252318900000</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>176075501870000</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>202365026790000</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>234425913902900</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1854605031415</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Kenya</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>333611292400</v>
-      </c>
-      <c r="F47" t="n">
-        <v>400657837200</v>
-      </c>
-      <c r="G47" t="n">
-        <v>465250740000</v>
-      </c>
-      <c r="H47" t="n">
-        <v>687998000000</v>
-      </c>
-      <c r="I47" t="n">
-        <v>770313000000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>850808200000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>906927630000</v>
-      </c>
-      <c r="L47" t="n">
-        <v>967836930000</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1020221000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1035373000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1131782000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1274329000000</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1415725000000</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1862041000000</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2151349000000</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2483058000000</v>
-      </c>
-      <c r="U47" t="n">
-        <v>3275642000000</v>
-      </c>
-      <c r="V47" t="n">
-        <v>3597630000000</v>
-      </c>
-      <c r="W47" t="n">
-        <v>4162514000000</v>
-      </c>
-      <c r="X47" t="n">
-        <v>4767191000000</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>5311322000000</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>6003835000000</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>6884317000000</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>7594064000000</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>8483396000000</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>9340307000000</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>10237727000000</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>10715070000000</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>12027662000000</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>13489642000000</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>15108806000000</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1854705032109</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>2505757658900</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3338327100700</v>
-      </c>
-      <c r="G48" t="n">
-        <v>4386255058600</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5471226214700</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6830184019700</v>
-      </c>
-      <c r="J48" t="n">
-        <v>8090903071500</v>
-      </c>
-      <c r="K48" t="n">
-        <v>9463537207700</v>
-      </c>
-      <c r="L48" t="n">
-        <v>10702564363100</v>
-      </c>
-      <c r="M48" t="n">
-        <v>11899019633400</v>
-      </c>
-      <c r="N48" t="n">
-        <v>13664748311300</v>
-      </c>
-      <c r="O48" t="n">
-        <v>15803723268000</v>
-      </c>
-      <c r="P48" t="n">
-        <v>18159445568400</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>20771312305000</v>
-      </c>
-      <c r="R48" t="n">
-        <v>23347422032000</v>
-      </c>
-      <c r="S48" t="n">
-        <v>27195969081000</v>
-      </c>
-      <c r="T48" t="n">
-        <v>33450674683000</v>
-      </c>
-      <c r="U48" t="n">
-        <v>38397086967000</v>
-      </c>
-      <c r="V48" t="n">
-        <v>44679884234000</v>
-      </c>
-      <c r="W48" t="n">
-        <v>53976186599000</v>
-      </c>
-      <c r="X48" t="n">
-        <v>62318659036800</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>72977199824200</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>82603387740700</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>94349315691600</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>108362324289500</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>118742132825000</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>129043901311200</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>139641854498000</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>151571350271500</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>162349974723800</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>174452778541000</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>188334085000000</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1854805032803</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>3870387408000</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4400270000000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>5367456000000</v>
-      </c>
-      <c r="H49" t="n">
-        <v>6122089000000</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6633475000000</v>
-      </c>
-      <c r="J49" t="n">
-        <v>7570250000000</v>
-      </c>
-      <c r="K49" t="n">
-        <v>8170700000000</v>
-      </c>
-      <c r="L49" t="n">
-        <v>9364317417900</v>
-      </c>
-      <c r="M49" t="n">
-        <v>10296365610000</v>
-      </c>
-      <c r="N49" t="n">
-        <v>10840666713000</v>
-      </c>
-      <c r="O49" t="n">
-        <v>12443497237000</v>
-      </c>
-      <c r="P49" t="n">
-        <v>15362227054000</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>16050626596000</v>
-      </c>
-      <c r="R49" t="n">
-        <v>18209404509000</v>
-      </c>
-      <c r="S49" t="n">
-        <v>21186563444000</v>
-      </c>
-      <c r="T49" t="n">
-        <v>24497446507000</v>
-      </c>
-      <c r="U49" t="n">
-        <v>48495172152000</v>
-      </c>
-      <c r="V49" t="n">
-        <v>54117241671000</v>
-      </c>
-      <c r="W49" t="n">
-        <v>64759582821000</v>
-      </c>
-      <c r="X49" t="n">
-        <v>69825188690000</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>74924152556000</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>82771227577000</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>91582107734000</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>100548527460000</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>108518040920000</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>120484777460000</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>132089774790000</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>139689045108200</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>148310247630400</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>162749947272900</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>183004386312800</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1854905033497</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Yemen, Rep.</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>261059000000</v>
-      </c>
-      <c r="F50" t="n">
-        <v>336514000000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>518252000000</v>
-      </c>
-      <c r="H50" t="n">
-        <v>741667000000</v>
-      </c>
-      <c r="I50" t="n">
-        <v>884192000000</v>
-      </c>
-      <c r="J50" t="n">
-        <v>859104000000</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1189857000000</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1558370000000</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1662101000000</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1878007000000</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2160608000000</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2563490000000</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3208501000000</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3760038227200</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4308635620000</v>
-      </c>
-      <c r="T50" t="n">
-        <v>5375824693600</v>
-      </c>
-      <c r="U50" t="n">
-        <v>5097593176200</v>
-      </c>
-      <c r="V50" t="n">
-        <v>6786813130000</v>
-      </c>
-      <c r="W50" t="n">
-        <v>6996908142400</v>
-      </c>
-      <c r="X50" t="n">
-        <v>7586549615600</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>8684829513100</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>9289390699700</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>9797602983900</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>8891000000000</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>10006000000000</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>11578730912300</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>10677793279104</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>11138308910427.38</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>11598824541750.62</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>12059340173074</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>12519855804397.38</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>1855005034191</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>13267298900</v>
-      </c>
-      <c r="F51" t="n">
-        <v>15025435100</v>
-      </c>
-      <c r="G51" t="n">
-        <v>31082569000</v>
-      </c>
-      <c r="H51" t="n">
-        <v>50817585200</v>
-      </c>
-      <c r="I51" t="n">
-        <v>63734101000</v>
-      </c>
-      <c r="J51" t="n">
-        <v>79161065200</v>
-      </c>
-      <c r="K51" t="n">
-        <v>113944873800</v>
-      </c>
-      <c r="L51" t="n">
-        <v>151080955400</v>
-      </c>
-      <c r="M51" t="n">
-        <v>180349563400</v>
-      </c>
-      <c r="N51" t="n">
-        <v>390113132800</v>
-      </c>
-      <c r="O51" t="n">
-        <v>455035943900</v>
-      </c>
-      <c r="P51" t="n">
-        <v>550920593200</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>630038654600</v>
-      </c>
-      <c r="R51" t="n">
-        <v>791364591300</v>
-      </c>
-      <c r="S51" t="n">
-        <v>902893964000</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1088154018100</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1271897950800</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1524177906400</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1823114919200</v>
-      </c>
-      <c r="X51" t="n">
-        <v>2185457550900</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>2926763440900</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>3739646523700</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>4606103177100</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>5679325217400</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>6531224085000</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>7234882369500</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>8239605654000</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>8821424127100</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>9975521930200</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>11795662816400</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>14760005789200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1855105034885</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>6563813300</v>
-      </c>
-      <c r="F52" t="n">
-        <v>6890675000</v>
-      </c>
-      <c r="G52" t="n">
-        <v>7111270700</v>
-      </c>
-      <c r="H52" t="n">
-        <v>8553146600</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8529571599.999999</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6401968200</v>
-      </c>
-      <c r="K52" t="n">
-        <v>6858013100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6689957600</v>
-      </c>
-      <c r="M52" t="n">
-        <v>6777384700</v>
-      </c>
-      <c r="N52" t="n">
-        <v>6342116400</v>
-      </c>
-      <c r="O52" t="n">
-        <v>5727591800</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5805598400</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5755215200</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5443896500</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5291950100</v>
-      </c>
-      <c r="T52" t="n">
-        <v>4415702800</v>
-      </c>
-      <c r="U52" t="n">
-        <v>9665793300</v>
-      </c>
-      <c r="V52" t="n">
-        <v>12041655200</v>
-      </c>
-      <c r="W52" t="n">
-        <v>14101920300</v>
-      </c>
-      <c r="X52" t="n">
-        <v>17114849900</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>19091020000</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>19495519600</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>19963120600</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>20548678100</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>64016979487.4598</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>69613486100</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>212174391900</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1378795328500</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>3189937242100</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>12425362491400</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>133703393440500</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1855205035579</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Chad</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>414337973300</v>
-      </c>
-      <c r="F53" t="n">
-        <v>655051577700</v>
-      </c>
-      <c r="G53" t="n">
-        <v>721728639500</v>
-      </c>
-      <c r="H53" t="n">
-        <v>822241422600</v>
-      </c>
-      <c r="I53" t="n">
-        <v>901587995300</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1029344630700</v>
-      </c>
-      <c r="K53" t="n">
-        <v>944897144000</v>
-      </c>
-      <c r="L53" t="n">
-        <v>986128585300</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1253017742400</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1385349274600</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1590551400000</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2332340000000</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3505903000000</v>
-      </c>
-      <c r="R53" t="n">
-        <v>3880944000000</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4140247589300</v>
-      </c>
-      <c r="T53" t="n">
-        <v>4635650285500</v>
-      </c>
-      <c r="U53" t="n">
-        <v>4369368423300</v>
-      </c>
-      <c r="V53" t="n">
-        <v>5278516425000</v>
-      </c>
-      <c r="W53" t="n">
-        <v>5736183821300</v>
-      </c>
-      <c r="X53" t="n">
-        <v>6314235440000</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>6397746000000</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>6883356000000</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>6474000000000</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>5984000000000</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>5806796500000</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>6242756000000</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>6629554456200</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>6167632000000</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>6532361000000</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>7732628994700</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>7975982997700</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1855305036273</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>GDP (current LCU)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>South Sudan</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Economical</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>747645824.6660156</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3207129816.333008</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5666613808</v>
-      </c>
-      <c r="K54" t="n">
-        <v>8126097799.666016</v>
-      </c>
-      <c r="L54" t="n">
-        <v>10585581791.33301</v>
-      </c>
-      <c r="M54" t="n">
-        <v>13045065783</v>
-      </c>
-      <c r="N54" t="n">
-        <v>15504549774.66602</v>
-      </c>
-      <c r="O54" t="n">
-        <v>17964033766.33301</v>
-      </c>
-      <c r="P54" t="n">
-        <v>20423517758</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>22883001749.66602</v>
-      </c>
-      <c r="R54" t="n">
-        <v>25342485741.33301</v>
-      </c>
-      <c r="S54" t="n">
-        <v>27801969733</v>
-      </c>
-      <c r="T54" t="n">
-        <v>30504231700</v>
-      </c>
-      <c r="U54" t="n">
-        <v>28251774800</v>
-      </c>
-      <c r="V54" t="n">
-        <v>33656316700</v>
-      </c>
-      <c r="W54" t="n">
-        <v>44557946400</v>
-      </c>
-      <c r="X54" t="n">
-        <v>35197842900</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>54358083600</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>41188527900</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>43242473500</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>49937325658</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>52396809649.66602</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>54856293641.33301</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>57315777633</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>59775261624.66602</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>62234745616.33301</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>64694229608</v>
-      </c>
-      <c r="AI54" t="n">
         <v>67153713599.66602</v>
       </c>
     </row>
